--- a/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1515804639971314</v>
+        <v>0.1515804639970177</v>
       </c>
       <c r="D2">
-        <v>0.6398324069064927</v>
+        <v>0.639832406906379</v>
       </c>
       <c r="E2">
-        <v>4.166162005973248</v>
+        <v>4.166162005973234</v>
       </c>
       <c r="F2">
-        <v>7.667626962668123</v>
+        <v>7.667626962667981</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6.236435062882364</v>
+        <v>6.236435062882236</v>
       </c>
       <c r="I2">
-        <v>2.697543216374669</v>
+        <v>2.697543216374598</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>46.50650931908956</v>
+        <v>46.50650931908888</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07019845121686252</v>
+        <v>0.0701984512168341</v>
       </c>
       <c r="D3">
-        <v>0.4393163094067631</v>
+        <v>0.4393163094065642</v>
       </c>
       <c r="E3">
         <v>3.106076427777566</v>
       </c>
       <c r="F3">
-        <v>4.44010387327144</v>
+        <v>4.440103873271482</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.73200662817095</v>
+        <v>3.732006628170979</v>
       </c>
       <c r="I3">
         <v>1.919617872856989</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>34.84808681222762</v>
+        <v>34.84808681222768</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,25 +491,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04667954438144584</v>
+        <v>0.04667954438145472</v>
       </c>
       <c r="D4">
-        <v>0.3636709388304666</v>
+        <v>0.3636709388304808</v>
       </c>
       <c r="E4">
         <v>2.673376643488268</v>
       </c>
       <c r="F4">
-        <v>3.39384485490784</v>
+        <v>3.393844854907854</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.901106373373423</v>
+        <v>2.901106373373466</v>
       </c>
       <c r="I4">
-        <v>1.624041353851041</v>
+        <v>1.624041353851027</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>30.02836014382126</v>
+        <v>30.02836014382137</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03943593709359305</v>
+        <v>0.03943593709318272</v>
       </c>
       <c r="D5">
-        <v>0.3373196581802063</v>
+        <v>0.3373196581804052</v>
       </c>
       <c r="E5">
         <v>2.516910876819622</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.627697318078702</v>
+        <v>2.627697318078674</v>
       </c>
       <c r="I5">
-        <v>1.519875825698634</v>
+        <v>1.51987582569862</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>28.2804653110943</v>
+        <v>28.28046531109413</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03833313068201605</v>
+        <v>0.03833313068221855</v>
       </c>
       <c r="D6">
-        <v>0.3331393858717746</v>
+        <v>0.3331393858716609</v>
       </c>
       <c r="E6">
-        <v>2.491785219027093</v>
+        <v>2.491785219027051</v>
       </c>
       <c r="F6">
-        <v>3.000581458081783</v>
+        <v>3.000581458081712</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.585126850278627</v>
+        <v>2.585126850278584</v>
       </c>
       <c r="I6">
-        <v>1.503276373415687</v>
+        <v>1.503276373415673</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>27.99958006927898</v>
+        <v>27.99958006927892</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,25 +605,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04657444667134492</v>
+        <v>0.04657444667115485</v>
       </c>
       <c r="D7">
-        <v>0.3633011699386515</v>
+        <v>0.3633011699386657</v>
       </c>
       <c r="E7">
-        <v>2.671203242179814</v>
+        <v>2.671203242179857</v>
       </c>
       <c r="F7">
-        <v>3.38897869663181</v>
+        <v>3.38897869663171</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.897210431232551</v>
+        <v>2.897210431232452</v>
       </c>
       <c r="I7">
-        <v>1.622584909101406</v>
+        <v>1.622584909101391</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D8">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E8">
         <v>3.705443247773744</v>
       </c>
       <c r="F8">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I8">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D9">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E9">
         <v>3.705443247773744</v>
       </c>
       <c r="F9">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I9">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D10">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E10">
         <v>3.705443247773744</v>
       </c>
       <c r="F10">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I10">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D11">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E11">
         <v>3.705443247773744</v>
       </c>
       <c r="F11">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I11">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D12">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E12">
         <v>3.705443247773744</v>
       </c>
       <c r="F12">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I12">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D13">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E13">
         <v>3.705443247773744</v>
       </c>
       <c r="F13">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I13">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D14">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E14">
         <v>3.705443247773744</v>
       </c>
       <c r="F14">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I14">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D15">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E15">
         <v>3.705443247773744</v>
       </c>
       <c r="F15">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I15">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D16">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E16">
         <v>3.705443247773744</v>
       </c>
       <c r="F16">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I16">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D17">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E17">
         <v>3.705443247773744</v>
       </c>
       <c r="F17">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I17">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D18">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E18">
         <v>3.705443247773744</v>
       </c>
       <c r="F18">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I18">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D19">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E19">
         <v>3.705443247773744</v>
       </c>
       <c r="F19">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I19">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D20">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E20">
         <v>3.705443247773744</v>
       </c>
       <c r="F20">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I20">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D21">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E21">
         <v>3.705443247773744</v>
       </c>
       <c r="F21">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I21">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D22">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E22">
         <v>3.705443247773744</v>
       </c>
       <c r="F22">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I22">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D23">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E23">
         <v>3.705443247773744</v>
       </c>
       <c r="F23">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I23">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D24">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E24">
         <v>3.705443247773744</v>
       </c>
       <c r="F24">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I24">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.111823258341806</v>
+        <v>0.1118232583415839</v>
       </c>
       <c r="D25">
-        <v>0.5503126547190362</v>
+        <v>0.5503126547191215</v>
       </c>
       <c r="E25">
         <v>3.705443247773744</v>
       </c>
       <c r="F25">
-        <v>6.147732981831723</v>
+        <v>6.147732981831638</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>5.065979533786276</v>
+        <v>5.065979533786233</v>
       </c>
       <c r="I25">
-        <v>2.349222764013788</v>
+        <v>2.349222764013774</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>41.47442689010501</v>
+        <v>41.47442689010489</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1515804639970177</v>
+        <v>0.1515804639971314</v>
       </c>
       <c r="D2">
-        <v>0.639832406906379</v>
+        <v>0.6398324069064927</v>
       </c>
       <c r="E2">
-        <v>4.166162005973234</v>
+        <v>4.166162005973248</v>
       </c>
       <c r="F2">
-        <v>7.667626962667981</v>
+        <v>7.667626962668123</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6.236435062882236</v>
+        <v>6.236435062882364</v>
       </c>
       <c r="I2">
-        <v>2.697543216374598</v>
+        <v>2.697543216374669</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>46.50650931908888</v>
+        <v>46.50650931908956</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0701984512168341</v>
+        <v>0.07019845121686252</v>
       </c>
       <c r="D3">
-        <v>0.4393163094065642</v>
+        <v>0.4393163094067631</v>
       </c>
       <c r="E3">
         <v>3.106076427777566</v>
       </c>
       <c r="F3">
-        <v>4.440103873271482</v>
+        <v>4.44010387327144</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.732006628170979</v>
+        <v>3.73200662817095</v>
       </c>
       <c r="I3">
         <v>1.919617872856989</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>34.84808681222768</v>
+        <v>34.84808681222762</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,25 +491,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04667954438145472</v>
+        <v>0.04667954438144584</v>
       </c>
       <c r="D4">
-        <v>0.3636709388304808</v>
+        <v>0.3636709388304666</v>
       </c>
       <c r="E4">
         <v>2.673376643488268</v>
       </c>
       <c r="F4">
-        <v>3.393844854907854</v>
+        <v>3.39384485490784</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.901106373373466</v>
+        <v>2.901106373373423</v>
       </c>
       <c r="I4">
-        <v>1.624041353851027</v>
+        <v>1.624041353851041</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>30.02836014382137</v>
+        <v>30.02836014382126</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03943593709318272</v>
+        <v>0.03943593709359305</v>
       </c>
       <c r="D5">
-        <v>0.3373196581804052</v>
+        <v>0.3373196581802063</v>
       </c>
       <c r="E5">
         <v>2.516910876819622</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.627697318078674</v>
+        <v>2.627697318078702</v>
       </c>
       <c r="I5">
-        <v>1.51987582569862</v>
+        <v>1.519875825698634</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>28.28046531109413</v>
+        <v>28.2804653110943</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03833313068221855</v>
+        <v>0.03833313068201605</v>
       </c>
       <c r="D6">
-        <v>0.3331393858716609</v>
+        <v>0.3331393858717746</v>
       </c>
       <c r="E6">
-        <v>2.491785219027051</v>
+        <v>2.491785219027093</v>
       </c>
       <c r="F6">
-        <v>3.000581458081712</v>
+        <v>3.000581458081783</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.585126850278584</v>
+        <v>2.585126850278627</v>
       </c>
       <c r="I6">
-        <v>1.503276373415673</v>
+        <v>1.503276373415687</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>27.99958006927892</v>
+        <v>27.99958006927898</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,25 +605,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04657444667115485</v>
+        <v>0.04657444667134492</v>
       </c>
       <c r="D7">
-        <v>0.3633011699386657</v>
+        <v>0.3633011699386515</v>
       </c>
       <c r="E7">
-        <v>2.671203242179857</v>
+        <v>2.671203242179814</v>
       </c>
       <c r="F7">
-        <v>3.38897869663171</v>
+        <v>3.38897869663181</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.897210431232452</v>
+        <v>2.897210431232551</v>
       </c>
       <c r="I7">
-        <v>1.622584909101391</v>
+        <v>1.622584909101406</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D8">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E8">
         <v>3.705443247773744</v>
       </c>
       <c r="F8">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I8">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D9">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E9">
         <v>3.705443247773744</v>
       </c>
       <c r="F9">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I9">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D10">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E10">
         <v>3.705443247773744</v>
       </c>
       <c r="F10">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I10">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D11">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E11">
         <v>3.705443247773744</v>
       </c>
       <c r="F11">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I11">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D12">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E12">
         <v>3.705443247773744</v>
       </c>
       <c r="F12">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I12">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D13">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E13">
         <v>3.705443247773744</v>
       </c>
       <c r="F13">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I13">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D14">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E14">
         <v>3.705443247773744</v>
       </c>
       <c r="F14">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I14">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D15">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E15">
         <v>3.705443247773744</v>
       </c>
       <c r="F15">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I15">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D16">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E16">
         <v>3.705443247773744</v>
       </c>
       <c r="F16">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I16">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D17">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E17">
         <v>3.705443247773744</v>
       </c>
       <c r="F17">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I17">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D18">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E18">
         <v>3.705443247773744</v>
       </c>
       <c r="F18">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I18">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D19">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E19">
         <v>3.705443247773744</v>
       </c>
       <c r="F19">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I19">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D20">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E20">
         <v>3.705443247773744</v>
       </c>
       <c r="F20">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I20">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D21">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E21">
         <v>3.705443247773744</v>
       </c>
       <c r="F21">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I21">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D22">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E22">
         <v>3.705443247773744</v>
       </c>
       <c r="F22">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I22">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D23">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E23">
         <v>3.705443247773744</v>
       </c>
       <c r="F23">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I23">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D24">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E24">
         <v>3.705443247773744</v>
       </c>
       <c r="F24">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I24">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1118232583415839</v>
+        <v>0.111823258341806</v>
       </c>
       <c r="D25">
-        <v>0.5503126547191215</v>
+        <v>0.5503126547190362</v>
       </c>
       <c r="E25">
         <v>3.705443247773744</v>
       </c>
       <c r="F25">
-        <v>6.147732981831638</v>
+        <v>6.147732981831723</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>5.065979533786233</v>
+        <v>5.065979533786276</v>
       </c>
       <c r="I25">
-        <v>2.349222764013774</v>
+        <v>2.349222764013788</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>41.47442689010489</v>
+        <v>41.47442689010501</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1515804639971314</v>
+        <v>0.1383783434862131</v>
       </c>
       <c r="D2">
-        <v>0.6398324069064927</v>
+        <v>0.6139250366634172</v>
       </c>
       <c r="E2">
-        <v>4.166162005973248</v>
+        <v>4.1105415812129</v>
       </c>
       <c r="F2">
-        <v>7.667626962668123</v>
+        <v>7.278553594762059</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005079986135666887</v>
       </c>
       <c r="H2">
-        <v>6.236435062882364</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.697543216374669</v>
+        <v>5.936723674621817</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.646933254477645</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>46.50650931908956</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>45.78960435568712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07019845121686252</v>
+        <v>0.06384613070658673</v>
       </c>
       <c r="D3">
-        <v>0.4393163094067631</v>
+        <v>0.4257130476255213</v>
       </c>
       <c r="E3">
-        <v>3.106076427777566</v>
+        <v>3.089182141852675</v>
       </c>
       <c r="F3">
-        <v>4.44010387327144</v>
+        <v>4.272380461537679</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0005813705572393903</v>
       </c>
       <c r="H3">
-        <v>3.73200662817095</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.919617872856989</v>
+        <v>3.600509916342716</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.903175048640904</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>34.84808681222762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>34.58194526582292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04667954438144584</v>
+        <v>0.04182563772950765</v>
       </c>
       <c r="D4">
-        <v>0.3636709388304666</v>
+        <v>0.3529920675687492</v>
       </c>
       <c r="E4">
-        <v>2.673376643488268</v>
+        <v>2.661999866334213</v>
       </c>
       <c r="F4">
-        <v>3.39384485490784</v>
+        <v>3.27211670750026</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006133518279152388</v>
       </c>
       <c r="H4">
-        <v>2.901106373373423</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.624041353851041</v>
+        <v>2.805029246908362</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.612679113279611</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>30.02836014382126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>29.83787253716008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03943593709359305</v>
+        <v>0.03505713584766212</v>
       </c>
       <c r="D5">
-        <v>0.3373196581802063</v>
+        <v>0.3275887355724194</v>
       </c>
       <c r="E5">
-        <v>2.516910876819622</v>
+        <v>2.506990460978855</v>
       </c>
       <c r="F5">
-        <v>3.053390905119954</v>
+        <v>2.945927867043977</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006251764877770201</v>
       </c>
       <c r="H5">
-        <v>2.627697318078702</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.519875825698634</v>
+        <v>2.542654273821796</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.509885698999071</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>28.2804653110943</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>28.11153648118074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03833313068201605</v>
+        <v>0.03402816903130379</v>
       </c>
       <c r="D6">
-        <v>0.3331393858717746</v>
+        <v>0.3235566428181613</v>
       </c>
       <c r="E6">
-        <v>2.491785219027093</v>
+        <v>2.482078384144955</v>
       </c>
       <c r="F6">
-        <v>3.000581458081783</v>
+        <v>2.895320326178833</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006270888631315583</v>
       </c>
       <c r="H6">
-        <v>2.585126850278627</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.503276373415687</v>
+        <v>2.50178915266045</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.49348909130434</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>27.99958006927898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>27.8338936409952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04657444667134492</v>
+        <v>0.04172733507164672</v>
       </c>
       <c r="D7">
-        <v>0.3633011699386515</v>
+        <v>0.3526357882528401</v>
       </c>
       <c r="E7">
-        <v>2.671203242179814</v>
+        <v>2.659848298087155</v>
       </c>
       <c r="F7">
-        <v>3.38897869663181</v>
+        <v>3.267455734596282</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006135151034533041</v>
       </c>
       <c r="H7">
-        <v>2.897210431232551</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.622584909101406</v>
+        <v>2.801291844980085</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.611243111192138</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>30.00409676362744</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>29.81392595180426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D8">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E8">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F8">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H8">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D9">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E9">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F9">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H9">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D10">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E10">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F10">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H10">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D11">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E11">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F11">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H11">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D12">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E12">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F12">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H12">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D13">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E13">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F13">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H13">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D14">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E14">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F14">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H14">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D15">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E15">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F15">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H15">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D16">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E16">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F16">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H16">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D17">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E17">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F17">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H17">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D18">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E18">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F18">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H18">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D19">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E19">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F19">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H19">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D20">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E20">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F20">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H20">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D21">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E21">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F21">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H21">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D22">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E22">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F22">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H22">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D23">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E23">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F23">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H23">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D24">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E24">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F24">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H24">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>41.47442689010501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>41.03224895659497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.111823258341806</v>
+        <v>0.1025488052354877</v>
       </c>
       <c r="D25">
-        <v>0.5503126547190362</v>
+        <v>0.5312825676991082</v>
       </c>
       <c r="E25">
-        <v>3.705443247773744</v>
+        <v>3.674194531348874</v>
       </c>
       <c r="F25">
-        <v>6.147732981831723</v>
+        <v>5.887073457501089</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005388370913369871</v>
       </c>
       <c r="H25">
-        <v>5.065979533786276</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.349222764013788</v>
+        <v>4.863515734280099</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.319952517807366</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>41.47442689010501</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>41.03224895659497</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1383783434862131</v>
+        <v>0.4544356205276188</v>
       </c>
       <c r="D2">
-        <v>0.6139250366634172</v>
+        <v>0.03468798237270576</v>
       </c>
       <c r="E2">
-        <v>4.1105415812129</v>
+        <v>0.204518863262841</v>
       </c>
       <c r="F2">
-        <v>7.278553594762059</v>
+        <v>2.601770277162899</v>
       </c>
       <c r="G2">
-        <v>0.0005079986135666887</v>
+        <v>0.000687818225238649</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.936723674621817</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.646933254477645</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.42153005848024</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1896039922036081</v>
       </c>
       <c r="M2">
-        <v>45.78960435568712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.099022304899222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06384613070658673</v>
+        <v>0.3929554105260138</v>
       </c>
       <c r="D3">
-        <v>0.4257130476255213</v>
+        <v>0.02113482061421834</v>
       </c>
       <c r="E3">
-        <v>3.089182141852675</v>
+        <v>0.1761201827640875</v>
       </c>
       <c r="F3">
-        <v>4.272380461537679</v>
+        <v>2.108385864898821</v>
       </c>
       <c r="G3">
-        <v>0.0005813705572393903</v>
+        <v>0.0007143918656637453</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.600509916342716</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.903175048640904</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.09331242576508</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1626679617084079</v>
       </c>
       <c r="M3">
-        <v>34.58194526582292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.689677595363321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04182563772950765</v>
+        <v>0.3583245317369119</v>
       </c>
       <c r="D4">
-        <v>0.3529920675687492</v>
+        <v>0.0163915222038149</v>
       </c>
       <c r="E4">
-        <v>2.661999866334213</v>
+        <v>0.1601270894299383</v>
       </c>
       <c r="F4">
-        <v>3.27211670750026</v>
+        <v>1.857202361836698</v>
       </c>
       <c r="G4">
-        <v>0.0006133518279152388</v>
+        <v>0.0007303106323425583</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.805029246908362</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.612679113279611</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.14127461706249</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1475022074834129</v>
       </c>
       <c r="M4">
-        <v>29.83787253716008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.484728971372931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03505713584766212</v>
+        <v>0.3448239580080212</v>
       </c>
       <c r="D5">
-        <v>0.3275887355724194</v>
+        <v>0.01515734971295402</v>
       </c>
       <c r="E5">
-        <v>2.506990460978855</v>
+        <v>0.1538923499080624</v>
       </c>
       <c r="F5">
-        <v>2.945927867043977</v>
+        <v>1.765006655930534</v>
       </c>
       <c r="G5">
-        <v>0.0006251764877770201</v>
+        <v>0.0007367425138435037</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.542654273821796</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.509885698999071</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.36315867735851</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1415901708806615</v>
       </c>
       <c r="M5">
-        <v>28.11153648118074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.410318579429159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03402816903130379</v>
+        <v>0.3426150134064585</v>
       </c>
       <c r="D6">
-        <v>0.3235566428181613</v>
+        <v>0.01498986612139319</v>
       </c>
       <c r="E6">
-        <v>2.482078384144955</v>
+        <v>0.152872213122361</v>
       </c>
       <c r="F6">
-        <v>2.895320326178833</v>
+        <v>1.750243459508098</v>
       </c>
       <c r="G6">
-        <v>0.0006270888631315583</v>
+        <v>0.0007378082701838716</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.50178915266045</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.49348909130434</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.23486459063838</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1406228277938197</v>
       </c>
       <c r="M6">
-        <v>27.8338936409952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.398451913196411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04172733507164672</v>
+        <v>0.3581401734715541</v>
       </c>
       <c r="D7">
-        <v>0.3526357882528401</v>
+        <v>0.01637226999771002</v>
       </c>
       <c r="E7">
-        <v>2.659848298087155</v>
+        <v>0.1600419511744917</v>
       </c>
       <c r="F7">
-        <v>3.267455734596282</v>
+        <v>1.85592099229558</v>
       </c>
       <c r="G7">
-        <v>0.0006135151034533041</v>
+        <v>0.0007303975481192435</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.801291844980085</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1.611243111192138</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.13071675540829</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1474214760143298</v>
       </c>
       <c r="M7">
-        <v>29.81392595180426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.483691407434947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1025488052354877</v>
+        <v>0.4324684728559305</v>
       </c>
       <c r="D8">
-        <v>0.5312825676991082</v>
+        <v>0.02912872811401712</v>
       </c>
       <c r="E8">
-        <v>3.674194531348874</v>
+        <v>0.194370510977528</v>
       </c>
       <c r="F8">
-        <v>5.887073457501089</v>
+        <v>2.418888936119913</v>
       </c>
       <c r="G8">
-        <v>0.0005388370913369871</v>
+        <v>0.0006970949092983789</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>21.25100515529766</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1799769709564458</v>
       </c>
       <c r="M8">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.946438323965324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1025488052354877</v>
+        <v>0.6152004103094555</v>
       </c>
       <c r="D9">
-        <v>0.5312825676991082</v>
+        <v>0.09727842107461271</v>
       </c>
       <c r="E9">
-        <v>3.674194531348874</v>
+        <v>0.2788692715692704</v>
       </c>
       <c r="F9">
-        <v>5.887073457501089</v>
+        <v>4.138541212164398</v>
       </c>
       <c r="G9">
-        <v>0.0005388370913369871</v>
+        <v>0.0006254667147050443</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>30.45012512566274</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2602096265501501</v>
       </c>
       <c r="M9">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3.406237267388974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1025488052354877</v>
+        <v>0.8067136149406906</v>
       </c>
       <c r="D10">
-        <v>0.5312825676991082</v>
+        <v>0.2173225965268699</v>
       </c>
       <c r="E10">
-        <v>3.674194531348874</v>
+        <v>0.3677203287200612</v>
       </c>
       <c r="F10">
-        <v>5.887073457501089</v>
+        <v>6.369463598525442</v>
       </c>
       <c r="G10">
-        <v>0.0005388370913369871</v>
+        <v>0.0005600594652117512</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>38.96971786050761</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3448399134516933</v>
       </c>
       <c r="M10">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>5.349134936921701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1025488052354877</v>
+        <v>0.9315816813611377</v>
       </c>
       <c r="D11">
-        <v>0.5312825676991082</v>
+        <v>0.3204490104452731</v>
       </c>
       <c r="E11">
-        <v>3.674194531348874</v>
+        <v>0.4258785869232895</v>
       </c>
       <c r="F11">
-        <v>5.887073457501089</v>
+        <v>8.034077182998146</v>
       </c>
       <c r="G11">
-        <v>0.0005388370913369871</v>
+        <v>0.0005210747064459407</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>43.9802875677338</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4004395383828836</v>
       </c>
       <c r="M11">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>6.819342469836812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1025488052354877</v>
+        <v>0.992796590170542</v>
       </c>
       <c r="D12">
-        <v>0.5312825676991082</v>
+        <v>0.3779923216290584</v>
       </c>
       <c r="E12">
-        <v>3.674194531348874</v>
+        <v>0.4544702251780492</v>
       </c>
       <c r="F12">
-        <v>5.887073457501089</v>
+        <v>8.907120339785649</v>
       </c>
       <c r="G12">
-        <v>0.0005388370913369871</v>
+        <v>0.0005028302275856393</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>46.28536815569953</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4278453952201744</v>
       </c>
       <c r="M12">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>7.595554408459662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1025488052354877</v>
+        <v>0.9786067776485083</v>
       </c>
       <c r="D13">
-        <v>0.5312825676991082</v>
+        <v>0.3642469796229619</v>
       </c>
       <c r="E13">
-        <v>3.674194531348874</v>
+        <v>0.4478374475544769</v>
       </c>
       <c r="F13">
-        <v>5.887073457501089</v>
+        <v>8.701486888255573</v>
       </c>
       <c r="G13">
-        <v>0.0005388370913369871</v>
+        <v>0.0005070120125034556</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>45.7598582997777</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.421483091028648</v>
       </c>
       <c r="M13">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>7.412446096063036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1025488052354877</v>
+        <v>0.9362176882210633</v>
       </c>
       <c r="D14">
-        <v>0.5312825676991082</v>
+        <v>0.3246469087634551</v>
       </c>
       <c r="E14">
-        <v>3.674194531348874</v>
+        <v>0.4280419482234592</v>
       </c>
       <c r="F14">
-        <v>5.887073457501089</v>
+        <v>8.098907087303871</v>
       </c>
       <c r="G14">
-        <v>0.0005388370913369871</v>
+        <v>0.0005196740850661463</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>44.15832589669679</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4025114074814695</v>
       </c>
       <c r="M14">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>6.876871204086967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1025488052354877</v>
+        <v>0.9126174411998988</v>
       </c>
       <c r="D15">
-        <v>0.5312825676991082</v>
+        <v>0.3035507479282131</v>
       </c>
       <c r="E15">
-        <v>3.674194531348874</v>
+        <v>0.4170322869978733</v>
       </c>
       <c r="F15">
-        <v>5.887073457501089</v>
+        <v>7.771104071707583</v>
       </c>
       <c r="G15">
-        <v>0.0005388370913369871</v>
+        <v>0.0005268374217684718</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>43.24607100635069</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3919702613535492</v>
       </c>
       <c r="M15">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>6.586177765006425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1025488052354877</v>
+        <v>0.7997410127304931</v>
       </c>
       <c r="D16">
-        <v>0.5312825676991082</v>
+        <v>0.2121333211201772</v>
       </c>
       <c r="E16">
-        <v>3.674194531348874</v>
+        <v>0.3644786256656474</v>
       </c>
       <c r="F16">
-        <v>5.887073457501089</v>
+        <v>6.281242224701771</v>
       </c>
       <c r="G16">
-        <v>0.0005388370913369871</v>
+        <v>0.0005623126819684759</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>38.67758049991778</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3417460637094791</v>
       </c>
       <c r="M16">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>5.271630542793019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1025488052354877</v>
+        <v>0.7428735274370126</v>
       </c>
       <c r="D17">
-        <v>0.5312825676991082</v>
+        <v>0.1720884924105093</v>
       </c>
       <c r="E17">
-        <v>3.674194531348874</v>
+        <v>0.3380605258826108</v>
       </c>
       <c r="F17">
-        <v>5.887073457501089</v>
+        <v>5.580978282274828</v>
       </c>
       <c r="G17">
-        <v>0.0005388370913369871</v>
+        <v>0.0005810219165677752</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>36.24521458317247</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3165515129669672</v>
       </c>
       <c r="M17">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>4.658165171896698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1025488052354877</v>
+        <v>0.7130563956390574</v>
       </c>
       <c r="D18">
-        <v>0.5312825676991082</v>
+        <v>0.1527281079881817</v>
       </c>
       <c r="E18">
-        <v>3.674194531348874</v>
+        <v>0.3242227911362647</v>
       </c>
       <c r="F18">
-        <v>5.887073457501089</v>
+        <v>5.227755058472212</v>
       </c>
       <c r="G18">
-        <v>0.0005388370913369871</v>
+        <v>0.0005910818449314334</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>34.93393883134161</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3033672349209127</v>
       </c>
       <c r="M18">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>4.349998352476007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1025488052354877</v>
+        <v>0.7033635925876354</v>
       </c>
       <c r="D19">
-        <v>0.5312825676991082</v>
+        <v>0.1466794742151194</v>
       </c>
       <c r="E19">
-        <v>3.674194531348874</v>
+        <v>0.3197264418971386</v>
       </c>
       <c r="F19">
-        <v>5.887073457501089</v>
+        <v>5.115035701931873</v>
       </c>
       <c r="G19">
-        <v>0.0005388370913369871</v>
+        <v>0.0005943914523209859</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>34.50226092622324</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2990849732151304</v>
       </c>
       <c r="M19">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>4.251854959705042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1025488052354877</v>
+        <v>0.7486030758985862</v>
       </c>
       <c r="D20">
-        <v>0.5312825676991082</v>
+        <v>0.1759383036203488</v>
       </c>
       <c r="E20">
-        <v>3.674194531348874</v>
+        <v>0.3407206008070247</v>
       </c>
       <c r="F20">
-        <v>5.887073457501089</v>
+        <v>5.649961587974815</v>
       </c>
       <c r="G20">
-        <v>0.0005388370913369871</v>
+        <v>0.0005791091717947909</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>36.49432967468027</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3190869326095367</v>
       </c>
       <c r="M20">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>4.718453849197317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1025488052354877</v>
+        <v>0.9481228912313497</v>
       </c>
       <c r="D21">
-        <v>0.5312825676991082</v>
+        <v>0.3355473857814815</v>
       </c>
       <c r="E21">
-        <v>3.674194531348874</v>
+        <v>0.4335988809331823</v>
       </c>
       <c r="F21">
-        <v>5.887073457501089</v>
+        <v>8.266362656743439</v>
       </c>
       <c r="G21">
-        <v>0.0005388370913369871</v>
+        <v>0.0005160917437846644</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>44.61292114390244</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4078346275274924</v>
       </c>
       <c r="M21">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>7.025552533217137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1025488052354877</v>
+        <v>1.219742793094952</v>
       </c>
       <c r="D22">
-        <v>0.5312825676991082</v>
+        <v>0.6309789972947115</v>
       </c>
       <c r="E22">
-        <v>3.674194531348874</v>
+        <v>0.5610443761466186</v>
       </c>
       <c r="F22">
-        <v>5.887073457501089</v>
+        <v>12.45312560223604</v>
       </c>
       <c r="G22">
-        <v>0.0005388370913369871</v>
+        <v>0.0004394983715319476</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>53.96320685796195</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5305152527320587</v>
       </c>
       <c r="M22">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>10.77626230821448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1025488052354877</v>
+        <v>1.039882655703735</v>
       </c>
       <c r="D23">
-        <v>0.5312825676991082</v>
+        <v>0.4253566623871521</v>
       </c>
       <c r="E23">
-        <v>3.674194531348874</v>
+        <v>0.4765033123369662</v>
       </c>
       <c r="F23">
-        <v>5.887073457501089</v>
+        <v>9.60336397411379</v>
       </c>
       <c r="G23">
-        <v>0.0005388370913369871</v>
+        <v>0.0004891509070796667</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>47.99104951561401</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4490010936803799</v>
       </c>
       <c r="M23">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>8.216737833929329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1025488052354877</v>
+        <v>0.746004128655585</v>
       </c>
       <c r="D24">
-        <v>0.5312825676991082</v>
+        <v>0.1741868544394194</v>
       </c>
       <c r="E24">
-        <v>3.674194531348874</v>
+        <v>0.3395139361393191</v>
       </c>
       <c r="F24">
-        <v>5.887073457501089</v>
+        <v>5.618626439470773</v>
       </c>
       <c r="G24">
-        <v>0.0005388370913369871</v>
+        <v>0.0005799760054562316</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>36.3814433875678</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.317936774997861</v>
       </c>
       <c r="M24">
-        <v>41.03224895659497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>4.691064064249815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1025488052354877</v>
+        <v>0.5595352696284124</v>
       </c>
       <c r="D25">
-        <v>0.5312825676991082</v>
+        <v>0.07144124615645353</v>
       </c>
       <c r="E25">
-        <v>3.674194531348874</v>
+        <v>0.2531060560762413</v>
       </c>
       <c r="F25">
-        <v>5.887073457501089</v>
+        <v>3.569078383238804</v>
       </c>
       <c r="G25">
-        <v>0.0005388370913369871</v>
+        <v>0.0006461079500286851</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.863515734280099</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2.319952517807366</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>27.76946292462469</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2357264003529735</v>
       </c>
       <c r="M25">
-        <v>41.03224895659497</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.917696447972034</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4544356205276188</v>
+        <v>0.01778177153735783</v>
       </c>
       <c r="D2">
-        <v>0.03468798237270576</v>
+        <v>0.002066048824717726</v>
       </c>
       <c r="E2">
-        <v>0.204518863262841</v>
+        <v>1.520554533848582</v>
       </c>
       <c r="F2">
-        <v>2.601770277162899</v>
+        <v>1.122819213992699</v>
       </c>
       <c r="G2">
-        <v>0.000687818225238649</v>
+        <v>1.127243184121482</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5556434040951217</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.8345574053082103</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>22.42153005848024</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1896039922036081</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.099022304899222</v>
+        <v>3.50812319065642</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3929554105260138</v>
+        <v>0.01543111721634105</v>
       </c>
       <c r="D3">
-        <v>0.02113482061421834</v>
+        <v>0.001790480323059285</v>
       </c>
       <c r="E3">
-        <v>0.1761201827640875</v>
+        <v>1.301752182798012</v>
       </c>
       <c r="F3">
-        <v>2.108385864898821</v>
+        <v>0.9731882100836202</v>
       </c>
       <c r="G3">
-        <v>0.0007143918656637453</v>
+        <v>0.9728900190130787</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4882445316826818</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.7231121535922043</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.09331242576508</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1626679617084079</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.689677595363321</v>
+        <v>3.039381204774116</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3583245317369119</v>
+        <v>0.01399865067217476</v>
       </c>
       <c r="D4">
-        <v>0.0163915222038149</v>
+        <v>0.001624466758421761</v>
       </c>
       <c r="E4">
-        <v>0.1601270894299383</v>
+        <v>1.170480460678377</v>
       </c>
       <c r="F4">
-        <v>1.857202361836698</v>
+        <v>0.8828167260130471</v>
       </c>
       <c r="G4">
-        <v>0.0007303106323425583</v>
+        <v>0.8796006898332536</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4477019360922441</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.6558139703891683</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.14127461706249</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1475022074834129</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.484728971372931</v>
+        <v>2.756463819234995</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3448239580080212</v>
+        <v>0.0134172847081544</v>
       </c>
       <c r="D5">
-        <v>0.01515734971295402</v>
+        <v>0.001557460296222501</v>
       </c>
       <c r="E5">
-        <v>0.1538923499080624</v>
+        <v>1.117638018682612</v>
       </c>
       <c r="F5">
-        <v>1.765006655930534</v>
+        <v>0.8463197899780397</v>
       </c>
       <c r="G5">
-        <v>0.0007367425138435037</v>
+        <v>0.8419068757070534</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4313686496661546</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6286374527339476</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.36315867735851</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1415901708806615</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.410318579429159</v>
+        <v>2.642246385297</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3426150134064585</v>
+        <v>0.01332088295135492</v>
       </c>
       <c r="D6">
-        <v>0.01498986612139319</v>
+        <v>0.001546368801782272</v>
       </c>
       <c r="E6">
-        <v>0.152872213122361</v>
+        <v>1.108899624624925</v>
       </c>
       <c r="F6">
-        <v>1.750243459508098</v>
+        <v>0.8402781191753377</v>
       </c>
       <c r="G6">
-        <v>0.0007378082701838716</v>
+        <v>0.8356659036069658</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4286672390606014</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6241387928538558</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.23486459063838</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1406228277938197</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.398451913196411</v>
+        <v>2.623341172488352</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3581401734715541</v>
+        <v>0.01399080099707817</v>
       </c>
       <c r="D7">
-        <v>0.01637226999771002</v>
+        <v>0.001623560661323076</v>
       </c>
       <c r="E7">
-        <v>0.1600419511744917</v>
+        <v>1.169765321163112</v>
       </c>
       <c r="F7">
-        <v>1.85592099229558</v>
+        <v>0.8823232390326439</v>
       </c>
       <c r="G7">
-        <v>0.0007303975481192435</v>
+        <v>0.8790910970487147</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4474809272417701</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.6554464996687415</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.13071675540829</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1474214760143298</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.483691407434947</v>
+        <v>2.754919293553854</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4324684728559305</v>
+        <v>0.01696879649209393</v>
       </c>
       <c r="D8">
-        <v>0.02912872811401712</v>
+        <v>0.001970269577860506</v>
       </c>
       <c r="E8">
-        <v>0.194370510977528</v>
+        <v>1.444396724799105</v>
       </c>
       <c r="F8">
-        <v>2.418888936119913</v>
+        <v>1.07088469425149</v>
       </c>
       <c r="G8">
-        <v>0.0006970949092983789</v>
+        <v>1.073682254265137</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5322152312831747</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.7958740205966137</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>21.25100515529766</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1799769709564458</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.946438323965324</v>
+        <v>3.345387377658142</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.6152004103094555</v>
+        <v>0.02291189973183094</v>
       </c>
       <c r="D9">
-        <v>0.09727842107461271</v>
+        <v>0.002684016682888313</v>
       </c>
       <c r="E9">
-        <v>0.2788692715692704</v>
+        <v>2.013526671630103</v>
       </c>
       <c r="F9">
-        <v>4.138541212164398</v>
+        <v>1.454947657693637</v>
       </c>
       <c r="G9">
-        <v>0.0006254667147050443</v>
+        <v>1.469587020481782</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.7062066659198365</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.08200955080369</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>30.45012512566274</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2602096265501501</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.406237267388974</v>
+        <v>4.549912689889879</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.8067136149406906</v>
+        <v>0.02736740572468932</v>
       </c>
       <c r="D10">
-        <v>0.2173225965268699</v>
+        <v>0.003243902163591272</v>
       </c>
       <c r="E10">
-        <v>0.3677203287200612</v>
+        <v>2.460262123049276</v>
       </c>
       <c r="F10">
-        <v>6.369463598525442</v>
+        <v>1.74952106214711</v>
       </c>
       <c r="G10">
-        <v>0.0005600594652117512</v>
+        <v>1.773134773548293</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.8406142461514037</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.301582701696205</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>38.96971786050761</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3448399134516933</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.349134936921701</v>
+        <v>5.475454319299558</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.9315816813611377</v>
+        <v>0.02942006856121537</v>
       </c>
       <c r="D11">
-        <v>0.3204490104452731</v>
+        <v>0.003510679240855907</v>
       </c>
       <c r="E11">
-        <v>0.4258785869232895</v>
+        <v>2.672379505472279</v>
       </c>
       <c r="F11">
-        <v>8.034077182998146</v>
+        <v>1.887164884098212</v>
       </c>
       <c r="G11">
-        <v>0.0005210747064459407</v>
+        <v>1.91499176716232</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.9036498457867879</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.404215854902517</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>43.9802875677338</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4004395383828836</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>6.819342469836812</v>
+        <v>5.908433154322097</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.992796590170542</v>
+        <v>0.03020165119540508</v>
       </c>
       <c r="D12">
-        <v>0.3779923216290584</v>
+        <v>0.003613905002048057</v>
       </c>
       <c r="E12">
-        <v>0.4544702251780492</v>
+        <v>2.754250148078455</v>
       </c>
       <c r="F12">
-        <v>8.907120339785649</v>
+        <v>1.939900348767651</v>
       </c>
       <c r="G12">
-        <v>0.0005028302275856393</v>
+        <v>1.969348569513414</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.9278361915947073</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.443543647454632</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>46.28536815569953</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4278453952201744</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>7.595554408459662</v>
+        <v>6.074406724815162</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.9786067776485083</v>
+        <v>0.03003312322841367</v>
       </c>
       <c r="D13">
-        <v>0.3642469796229619</v>
+        <v>0.003591566984873396</v>
       </c>
       <c r="E13">
-        <v>0.4478374475544769</v>
+        <v>2.736544322234238</v>
       </c>
       <c r="F13">
-        <v>8.701486888255573</v>
+        <v>1.928514027468921</v>
       </c>
       <c r="G13">
-        <v>0.0005070120125034556</v>
+        <v>1.95761178619253</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.9226124075787254</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.435051946745077</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>45.7598582997777</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.421483091028648</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>7.412446096063036</v>
+        <v>6.038566643303852</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.9362176882210633</v>
+        <v>0.0294842805302622</v>
       </c>
       <c r="D14">
-        <v>0.3246469087634551</v>
+        <v>0.003519124501110582</v>
       </c>
       <c r="E14">
-        <v>0.4280419482234592</v>
+        <v>2.679082368883371</v>
       </c>
       <c r="F14">
-        <v>8.098907087303871</v>
+        <v>1.891490630558309</v>
       </c>
       <c r="G14">
-        <v>0.0005196740850661463</v>
+        <v>1.919450338005504</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.90563306305026</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.40744168115377</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>44.15832589669679</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4025114074814695</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>6.876871204086967</v>
+        <v>5.922045703302445</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.9126174411998988</v>
+        <v>0.02914867420939515</v>
       </c>
       <c r="D15">
-        <v>0.3035507479282131</v>
+        <v>0.003475053846486276</v>
       </c>
       <c r="E15">
-        <v>0.4170322869978733</v>
+        <v>2.644095345001929</v>
       </c>
       <c r="F15">
-        <v>7.771104071707583</v>
+        <v>1.868895369095569</v>
       </c>
       <c r="G15">
-        <v>0.0005268374217684718</v>
+        <v>1.896161591430399</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.8952752956978998</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.390592029103885</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>43.24607100635069</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3919702613535492</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>6.586177765006425</v>
+        <v>5.850944980896486</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.7997410127304931</v>
+        <v>0.02723382664024854</v>
       </c>
       <c r="D16">
-        <v>0.2121333211201772</v>
+        <v>0.003226748345879216</v>
       </c>
       <c r="E16">
-        <v>0.3644786256656474</v>
+        <v>2.446600605799887</v>
       </c>
       <c r="F16">
-        <v>6.281242224701771</v>
+        <v>1.740606348241428</v>
       </c>
       <c r="G16">
-        <v>0.0005623126819684759</v>
+        <v>1.76394793030201</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.8365364400011686</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.294936274391546</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>38.67758049991778</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3417460637094791</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.271630542793019</v>
+        <v>5.447422960415452</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.7428735274370126</v>
+        <v>0.02606613441211181</v>
       </c>
       <c r="D17">
-        <v>0.1720884924105093</v>
+        <v>0.00307781660204931</v>
       </c>
       <c r="E17">
-        <v>0.3380605258826108</v>
+        <v>2.327899038769829</v>
       </c>
       <c r="F17">
-        <v>5.580978282274828</v>
+        <v>1.662897712448412</v>
       </c>
       <c r="G17">
-        <v>0.0005810219165677752</v>
+        <v>1.683869831981184</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.8010164051750905</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.237003955286767</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>36.24521458317247</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3165515129669672</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.658165171896698</v>
+        <v>5.203133781995234</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.7130563956390574</v>
+        <v>0.02539690301693298</v>
       </c>
       <c r="D18">
-        <v>0.1527281079881817</v>
+        <v>0.002993259114502322</v>
       </c>
       <c r="E18">
-        <v>0.3242227911362647</v>
+        <v>2.260443945731595</v>
       </c>
       <c r="F18">
-        <v>5.227755058472212</v>
+        <v>1.618538504716383</v>
       </c>
       <c r="G18">
-        <v>0.0005910818449314334</v>
+        <v>1.638159585949126</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7807614523587745</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.203936973431524</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>34.93393883134161</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3033672349209127</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.349998352476007</v>
+        <v>5.063729642249427</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.7033635925876354</v>
+        <v>0.02517070748297812</v>
       </c>
       <c r="D19">
-        <v>0.1466794742151194</v>
+        <v>0.002964806421962507</v>
       </c>
       <c r="E19">
-        <v>0.3197264418971386</v>
+        <v>2.237738011085639</v>
       </c>
       <c r="F19">
-        <v>5.115035701931873</v>
+        <v>1.603574537465562</v>
       </c>
       <c r="G19">
-        <v>0.0005943914523209859</v>
+        <v>1.622740011245781</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7739323208816415</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.192782788624342</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>34.50226092622324</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2990849732151304</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.251854959705042</v>
+        <v>5.016711084466579</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.7486030758985862</v>
+        <v>0.0261901854857598</v>
       </c>
       <c r="D20">
-        <v>0.1759383036203488</v>
+        <v>0.003093553309723163</v>
       </c>
       <c r="E20">
-        <v>0.3407206008070247</v>
+        <v>2.340448471648827</v>
       </c>
       <c r="F20">
-        <v>5.649961587974815</v>
+        <v>1.671134467194477</v>
       </c>
       <c r="G20">
-        <v>0.0005791091717947909</v>
+        <v>1.69235754954309</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.8047791372814856</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.243144182464647</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>36.49432967468027</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3190869326095367</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.718453849197317</v>
+        <v>5.229022442084329</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.9481228912313497</v>
+        <v>0.02964536787146699</v>
       </c>
       <c r="D21">
-        <v>0.3355473857814815</v>
+        <v>0.003540338603425397</v>
       </c>
       <c r="E21">
-        <v>0.4335988809331823</v>
+        <v>2.695916014689161</v>
       </c>
       <c r="F21">
-        <v>8.266362656743439</v>
+        <v>1.902347902314034</v>
       </c>
       <c r="G21">
-        <v>0.0005160917437846644</v>
+        <v>1.930641117508713</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.9106113495918464</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.415538341151418</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>44.61292114390244</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4078346275274924</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>7.025552533217137</v>
+        <v>5.956213517639014</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1.219742793094952</v>
+        <v>0.03192880245637753</v>
       </c>
       <c r="D22">
-        <v>0.6309789972947115</v>
+        <v>0.003845474563524576</v>
       </c>
       <c r="E22">
-        <v>0.5610443761466186</v>
+        <v>2.937406584105091</v>
       </c>
       <c r="F22">
-        <v>12.45312560223604</v>
+        <v>2.057080800614813</v>
       </c>
       <c r="G22">
-        <v>0.0004394983715319476</v>
+        <v>2.090149930549046</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.9816462168332407</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.530943720304535</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>53.96320685796195</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5305152527320587</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.77626230821448</v>
+        <v>6.443380222286294</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.039882655703735</v>
+        <v>0.03070757551451209</v>
       </c>
       <c r="D23">
-        <v>0.4253566623871521</v>
+        <v>0.003681234005608047</v>
       </c>
       <c r="E23">
-        <v>0.4765033123369662</v>
+        <v>2.807578728038706</v>
       </c>
       <c r="F23">
-        <v>9.60336397411379</v>
+        <v>1.974133002273689</v>
       </c>
       <c r="G23">
-        <v>0.0004891509070796667</v>
+        <v>2.004636267257808</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.9435466330099871</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.46907464791478</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>47.99104951561401</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4490010936803799</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>8.216737833929329</v>
+        <v>6.182172477639142</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.746004128655585</v>
+        <v>0.02613409552673573</v>
       </c>
       <c r="D24">
-        <v>0.1741868544394194</v>
+        <v>0.0030864354595046</v>
       </c>
       <c r="E24">
-        <v>0.3395139361393191</v>
+        <v>2.334772438112097</v>
       </c>
       <c r="F24">
-        <v>5.618626439470773</v>
+        <v>1.667409651068695</v>
       </c>
       <c r="G24">
-        <v>0.0005799760054562316</v>
+        <v>1.688519238771903</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.8030774923254</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.240367446075368</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>36.3814433875678</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.317936774997861</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.691064064249815</v>
+        <v>5.217314958366273</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.5595352696284124</v>
+        <v>0.02129050080881001</v>
       </c>
       <c r="D25">
-        <v>0.07144124615645353</v>
+        <v>0.002485950204492937</v>
       </c>
       <c r="E25">
-        <v>0.2531060560762413</v>
+        <v>1.8553443024107</v>
       </c>
       <c r="F25">
-        <v>3.569078383238804</v>
+        <v>1.349161107250893</v>
       </c>
       <c r="G25">
-        <v>0.0006461079500286851</v>
+        <v>1.360570116471592</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6581249516684693</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.003180548395548</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.76946292462469</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2357264003529735</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.917696447972034</v>
+        <v>4.217890626775841</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01778177153735783</v>
+        <v>0.006728519194957983</v>
       </c>
       <c r="D2">
-        <v>0.002066048824717726</v>
+        <v>0.0008797679034433514</v>
       </c>
       <c r="E2">
-        <v>1.520554533848582</v>
+        <v>0.4328853915826016</v>
       </c>
       <c r="F2">
-        <v>1.122819213992699</v>
+        <v>0.5140666435330417</v>
       </c>
       <c r="G2">
-        <v>1.127243184121482</v>
+        <v>0.4148371388643</v>
       </c>
       <c r="H2">
-        <v>0.5556434040951217</v>
+        <v>0.415906419037583</v>
       </c>
       <c r="I2">
-        <v>0.8345574053082103</v>
+        <v>0.378528808120933</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.50812319065642</v>
+        <v>1.604195653508384</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01543111721634105</v>
+        <v>0.006076801449463431</v>
       </c>
       <c r="D3">
-        <v>0.001790480323059285</v>
+        <v>0.0008078252901420058</v>
       </c>
       <c r="E3">
-        <v>1.301752182798012</v>
+        <v>0.3773509119814804</v>
       </c>
       <c r="F3">
-        <v>0.9731882100836202</v>
+        <v>0.477166177030341</v>
       </c>
       <c r="G3">
-        <v>0.9728900190130787</v>
+        <v>0.3751547748629775</v>
       </c>
       <c r="H3">
-        <v>0.4882445316826818</v>
+        <v>0.401380075461347</v>
       </c>
       <c r="I3">
-        <v>0.7231121535922043</v>
+        <v>0.3510449145856356</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.039381204774116</v>
+        <v>1.489284539608462</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01399865067217476</v>
+        <v>0.005679248823945215</v>
       </c>
       <c r="D4">
-        <v>0.001624466758421761</v>
+        <v>0.000763964996567168</v>
       </c>
       <c r="E4">
-        <v>1.170480460678377</v>
+        <v>0.3433622218953474</v>
       </c>
       <c r="F4">
-        <v>0.8828167260130471</v>
+        <v>0.4548086757983754</v>
       </c>
       <c r="G4">
-        <v>0.8796006898332536</v>
+        <v>0.3509929734859725</v>
       </c>
       <c r="H4">
-        <v>0.4477019360922441</v>
+        <v>0.3927130817850184</v>
       </c>
       <c r="I4">
-        <v>0.6558139703891683</v>
+        <v>0.334390143325102</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.756463819234995</v>
+        <v>1.41967317052405</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0134172847081544</v>
+        <v>0.005517902011231257</v>
       </c>
       <c r="D5">
-        <v>0.001557460296222501</v>
+        <v>0.0007461718022279129</v>
       </c>
       <c r="E5">
-        <v>1.117638018682612</v>
+        <v>0.3295368069885853</v>
       </c>
       <c r="F5">
-        <v>0.8463197899780397</v>
+        <v>0.4457726492480845</v>
       </c>
       <c r="G5">
-        <v>0.8419068757070534</v>
+        <v>0.3411973456554591</v>
       </c>
       <c r="H5">
-        <v>0.4313686496661546</v>
+        <v>0.3892444681041241</v>
       </c>
       <c r="I5">
-        <v>0.6286374527339476</v>
+        <v>0.3276582463111168</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.642246385297</v>
+        <v>1.391541781391453</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01332088295135492</v>
+        <v>0.005491150427758384</v>
       </c>
       <c r="D6">
-        <v>0.001546368801782272</v>
+        <v>0.0007432221500911496</v>
       </c>
       <c r="E6">
-        <v>1.108899624624925</v>
+        <v>0.327242564663635</v>
       </c>
       <c r="F6">
-        <v>0.8402781191753377</v>
+        <v>0.444276729850813</v>
       </c>
       <c r="G6">
-        <v>0.8356659036069658</v>
+        <v>0.3395738211245032</v>
       </c>
       <c r="H6">
-        <v>0.4286672390606014</v>
+        <v>0.3886723230525035</v>
       </c>
       <c r="I6">
-        <v>0.6241387928538558</v>
+        <v>0.3265437343539261</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.623341172488352</v>
+        <v>1.386884778666513</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01399080099707817</v>
+        <v>0.005677070170630572</v>
       </c>
       <c r="D7">
-        <v>0.001623560661323076</v>
+        <v>0.0007637247050613638</v>
       </c>
       <c r="E7">
-        <v>1.169765321163112</v>
+        <v>0.3431756683244203</v>
       </c>
       <c r="F7">
-        <v>0.8823232390326439</v>
+        <v>0.454686510413751</v>
       </c>
       <c r="G7">
-        <v>0.8790910970487147</v>
+        <v>0.3508606625685928</v>
       </c>
       <c r="H7">
-        <v>0.4474809272417701</v>
+        <v>0.3926660469550143</v>
       </c>
       <c r="I7">
-        <v>0.6554464996687415</v>
+        <v>0.3342991321805897</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.754919293553854</v>
+        <v>1.419292828240373</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01696879649209393</v>
+        <v>0.006503268574064691</v>
       </c>
       <c r="D8">
-        <v>0.001970269577860506</v>
+        <v>0.0008548980653255711</v>
       </c>
       <c r="E8">
-        <v>1.444396724799105</v>
+        <v>0.4137129092959952</v>
       </c>
       <c r="F8">
-        <v>1.07088469425149</v>
+        <v>0.5012808901624766</v>
       </c>
       <c r="G8">
-        <v>1.073682254265137</v>
+        <v>0.4011120680816163</v>
       </c>
       <c r="H8">
-        <v>0.5322152312831747</v>
+        <v>0.4108452740905477</v>
       </c>
       <c r="I8">
-        <v>0.7958740205966137</v>
+        <v>0.3690063707470514</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.345387377658142</v>
+        <v>1.564377203308595</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02291189973183094</v>
+        <v>0.00814401422202593</v>
       </c>
       <c r="D9">
-        <v>0.002684016682888313</v>
+        <v>0.001036116788627695</v>
       </c>
       <c r="E9">
-        <v>2.013526671630103</v>
+        <v>0.5530185435665942</v>
       </c>
       <c r="F9">
-        <v>1.454947657693637</v>
+        <v>0.595056017112114</v>
       </c>
       <c r="G9">
-        <v>1.469587020481782</v>
+        <v>0.5013017407642621</v>
       </c>
       <c r="H9">
-        <v>0.7062066659198365</v>
+        <v>0.4485062746539938</v>
       </c>
       <c r="I9">
-        <v>1.08200955080369</v>
+        <v>0.4388371859021873</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.549912689889879</v>
+        <v>1.856474353692022</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02736740572468932</v>
+        <v>0.009362015047557293</v>
       </c>
       <c r="D10">
-        <v>0.003243902163591272</v>
+        <v>0.001170690267082719</v>
       </c>
       <c r="E10">
-        <v>2.460262123049276</v>
+        <v>0.6561296499827876</v>
       </c>
       <c r="F10">
-        <v>1.74952106214711</v>
+        <v>0.6654628728308296</v>
       </c>
       <c r="G10">
-        <v>1.773134773548293</v>
+        <v>0.5759689139247541</v>
       </c>
       <c r="H10">
-        <v>0.8406142461514037</v>
+        <v>0.4774197779458689</v>
       </c>
       <c r="I10">
-        <v>1.301582701696205</v>
+        <v>0.4912553836842619</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.475454319299558</v>
+        <v>2.075855294684573</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02942006856121537</v>
+        <v>0.009918848095985311</v>
       </c>
       <c r="D11">
-        <v>0.003510679240855907</v>
+        <v>0.001232215773638856</v>
       </c>
       <c r="E11">
-        <v>2.672379505472279</v>
+        <v>0.7032396335836353</v>
       </c>
       <c r="F11">
-        <v>1.887164884098212</v>
+        <v>0.6978308986636961</v>
       </c>
       <c r="G11">
-        <v>1.91499176716232</v>
+        <v>0.6101787504348692</v>
       </c>
       <c r="H11">
-        <v>0.9036498457867879</v>
+        <v>0.4908474577540858</v>
       </c>
       <c r="I11">
-        <v>1.404215854902517</v>
+        <v>0.5153513634726465</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.908433154322097</v>
+        <v>2.17672900672693</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03020165119540508</v>
+        <v>0.01013010071406484</v>
       </c>
       <c r="D12">
-        <v>0.003613905002048057</v>
+        <v>0.001255557420938302</v>
       </c>
       <c r="E12">
-        <v>2.754250148078455</v>
+        <v>0.7211111176288938</v>
       </c>
       <c r="F12">
-        <v>1.939900348767651</v>
+        <v>0.7101373296406308</v>
       </c>
       <c r="G12">
-        <v>1.969348569513414</v>
+        <v>0.6231689435713008</v>
       </c>
       <c r="H12">
-        <v>0.9278361915947073</v>
+        <v>0.4959719445542419</v>
       </c>
       <c r="I12">
-        <v>1.443543647454632</v>
+        <v>0.5245124474168676</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>6.074406724815162</v>
+        <v>2.21508431669082</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03003312322841367</v>
+        <v>0.01008458632070841</v>
       </c>
       <c r="D13">
-        <v>0.003591566984873396</v>
+        <v>0.001250528467938494</v>
       </c>
       <c r="E13">
-        <v>2.736544322234238</v>
+        <v>0.7172607109845899</v>
       </c>
       <c r="F13">
-        <v>1.928514027468921</v>
+        <v>0.7074847156648474</v>
       </c>
       <c r="G13">
-        <v>1.95761178619253</v>
+        <v>0.6203696757861223</v>
       </c>
       <c r="H13">
-        <v>0.9226124075787254</v>
+        <v>0.4948665249933981</v>
       </c>
       <c r="I13">
-        <v>1.435051946745077</v>
+        <v>0.5225378159277341</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6.038566643303852</v>
+        <v>2.206816818587299</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0294842805302622</v>
+        <v>0.009936220144879826</v>
       </c>
       <c r="D14">
-        <v>0.003519124501110582</v>
+        <v>0.001234135242992096</v>
       </c>
       <c r="E14">
-        <v>2.679082368883371</v>
+        <v>0.7047092759485309</v>
       </c>
       <c r="F14">
-        <v>1.891490630558309</v>
+        <v>0.6988423638079126</v>
       </c>
       <c r="G14">
-        <v>1.919450338005504</v>
+        <v>0.6112467426643207</v>
       </c>
       <c r="H14">
-        <v>0.90563306305026</v>
+        <v>0.4912682552297838</v>
       </c>
       <c r="I14">
-        <v>1.40744168115377</v>
+        <v>0.5161043182866933</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.922045703302445</v>
+        <v>2.179881371418446</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02914867420939515</v>
+        <v>0.009845392495471117</v>
       </c>
       <c r="D15">
-        <v>0.003475053846486276</v>
+        <v>0.001224099528862155</v>
       </c>
       <c r="E15">
-        <v>2.644095345001929</v>
+        <v>0.6970253985258097</v>
       </c>
       <c r="F15">
-        <v>1.868895369095569</v>
+        <v>0.693555117943859</v>
       </c>
       <c r="G15">
-        <v>1.896161591430399</v>
+        <v>0.605663348196174</v>
       </c>
       <c r="H15">
-        <v>0.8952752956978998</v>
+        <v>0.4890693893524372</v>
       </c>
       <c r="I15">
-        <v>1.390592029103885</v>
+        <v>0.5121683756061799</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.850944980896486</v>
+        <v>2.163403085112861</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02723382664024854</v>
+        <v>0.009325679808874554</v>
       </c>
       <c r="D16">
-        <v>0.003226748345879216</v>
+        <v>0.001166675533008643</v>
       </c>
       <c r="E16">
-        <v>2.446600605799887</v>
+        <v>0.6530552318172482</v>
       </c>
       <c r="F16">
-        <v>1.740606348241428</v>
+        <v>0.663354424801156</v>
       </c>
       <c r="G16">
-        <v>1.76394793030201</v>
+        <v>0.5737381753344266</v>
       </c>
       <c r="H16">
-        <v>0.8365364400011686</v>
+        <v>0.4765477940424887</v>
       </c>
       <c r="I16">
-        <v>1.294936274391546</v>
+        <v>0.4896857341569927</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.447422960415452</v>
+        <v>2.069284775670098</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02606613441211181</v>
+        <v>0.009007556100804948</v>
       </c>
       <c r="D17">
-        <v>0.00307781660204931</v>
+        <v>0.001131525787663179</v>
       </c>
       <c r="E17">
-        <v>2.327899038769829</v>
+        <v>0.6261350971456068</v>
       </c>
       <c r="F17">
-        <v>1.662897712448412</v>
+        <v>0.6449146304703959</v>
       </c>
       <c r="G17">
-        <v>1.683869831981184</v>
+        <v>0.5542159257400954</v>
       </c>
       <c r="H17">
-        <v>0.8010164051750905</v>
+        <v>0.4689367221727991</v>
       </c>
       <c r="I17">
-        <v>1.237003955286767</v>
+        <v>0.4759578584805837</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.203133781995234</v>
+        <v>2.011823208150531</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02539690301693298</v>
+        <v>0.008824839663560624</v>
       </c>
       <c r="D18">
-        <v>0.002993259114502322</v>
+        <v>0.001111337560338654</v>
       </c>
       <c r="E18">
-        <v>2.260443945731595</v>
+        <v>0.6106704135292489</v>
       </c>
       <c r="F18">
-        <v>1.618538504716383</v>
+        <v>0.6343404807311117</v>
       </c>
       <c r="G18">
-        <v>1.638159585949126</v>
+        <v>0.5430101100603792</v>
       </c>
       <c r="H18">
-        <v>0.7807614523587745</v>
+        <v>0.4645848864146274</v>
       </c>
       <c r="I18">
-        <v>1.203936973431524</v>
+        <v>0.4680855176505787</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.063729642249427</v>
+        <v>1.978874020669139</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02517070748297812</v>
+        <v>0.008763019797221716</v>
       </c>
       <c r="D19">
-        <v>0.002964806421962507</v>
+        <v>0.001104507180555103</v>
       </c>
       <c r="E19">
-        <v>2.237738011085639</v>
+        <v>0.6054375336137952</v>
       </c>
       <c r="F19">
-        <v>1.603574537465562</v>
+        <v>0.6307657236869346</v>
       </c>
       <c r="G19">
-        <v>1.622740011245781</v>
+        <v>0.5392199201961887</v>
       </c>
       <c r="H19">
-        <v>0.7739323208816415</v>
+        <v>0.4631158635002066</v>
       </c>
       <c r="I19">
-        <v>1.192782788624342</v>
+        <v>0.4654241140248274</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.016711084466579</v>
+        <v>1.967735314281811</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0261901854857598</v>
+        <v>0.00904139404655524</v>
       </c>
       <c r="D20">
-        <v>0.003093553309723163</v>
+        <v>0.001135264546594072</v>
       </c>
       <c r="E20">
-        <v>2.340448471648827</v>
+        <v>0.6289987995033499</v>
       </c>
       <c r="F20">
-        <v>1.671134467194477</v>
+        <v>0.6468742693821667</v>
       </c>
       <c r="G20">
-        <v>1.69235754954309</v>
+        <v>0.55629173112834</v>
       </c>
       <c r="H20">
-        <v>0.8047791372814856</v>
+        <v>0.469744256791671</v>
       </c>
       <c r="I20">
-        <v>1.243144182464647</v>
+        <v>0.4774167718913844</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.229022442084329</v>
+        <v>2.017929604277867</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02964536787146699</v>
+        <v>0.009979788284667279</v>
       </c>
       <c r="D21">
-        <v>0.003540338603425397</v>
+        <v>0.001238949162306824</v>
       </c>
       <c r="E21">
-        <v>2.695916014689161</v>
+        <v>0.7083950486137951</v>
       </c>
       <c r="F21">
-        <v>1.902347902314034</v>
+        <v>0.7013794881263919</v>
       </c>
       <c r="G21">
-        <v>1.930641117508713</v>
+        <v>0.6139253957688595</v>
       </c>
       <c r="H21">
-        <v>0.9106113495918464</v>
+        <v>0.4923240747731654</v>
       </c>
       <c r="I21">
-        <v>1.415538341151418</v>
+        <v>0.5179929996918275</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.956213517639014</v>
+        <v>2.187788699467148</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03192880245637753</v>
+        <v>0.01059536607061062</v>
       </c>
       <c r="D22">
-        <v>0.003845474563524576</v>
+        <v>0.001306964959901791</v>
       </c>
       <c r="E22">
-        <v>2.937406584105091</v>
+        <v>0.7604725738272293</v>
       </c>
       <c r="F22">
-        <v>2.057080800614813</v>
+        <v>0.737289768870852</v>
       </c>
       <c r="G22">
-        <v>2.090149930549046</v>
+        <v>0.6518005599495496</v>
       </c>
       <c r="H22">
-        <v>0.9816462168332407</v>
+        <v>0.5073128822142507</v>
       </c>
       <c r="I22">
-        <v>1.530943720304535</v>
+        <v>0.5447246176007496</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>6.443380222286294</v>
+        <v>2.299715244977108</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03070757551451209</v>
+        <v>0.01026661325928302</v>
       </c>
       <c r="D23">
-        <v>0.003681234005608047</v>
+        <v>0.001270640865492112</v>
       </c>
       <c r="E23">
-        <v>2.807578728038706</v>
+        <v>0.7326597997577977</v>
       </c>
       <c r="F23">
-        <v>1.974133002273689</v>
+        <v>0.7180972507515833</v>
       </c>
       <c r="G23">
-        <v>2.004636267257808</v>
+        <v>0.631566594094096</v>
       </c>
       <c r="H23">
-        <v>0.9435466330099871</v>
+        <v>0.499291815127151</v>
       </c>
       <c r="I23">
-        <v>1.46907464791478</v>
+        <v>0.5304378499823486</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>6.182172477639142</v>
+        <v>2.23989370608416</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02613409552673573</v>
+        <v>0.009026095359509156</v>
       </c>
       <c r="D24">
-        <v>0.0030864354595046</v>
+        <v>0.001133574192012432</v>
       </c>
       <c r="E24">
-        <v>2.334772438112097</v>
+        <v>0.6277040823208324</v>
       </c>
       <c r="F24">
-        <v>1.667409651068695</v>
+        <v>0.6459882321519217</v>
       </c>
       <c r="G24">
-        <v>1.688519238771903</v>
+        <v>0.5553532041648452</v>
       </c>
       <c r="H24">
-        <v>0.8030774923254</v>
+        <v>0.4693790960480442</v>
       </c>
       <c r="I24">
-        <v>1.240367446075368</v>
+        <v>0.476757134878909</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.217314958366273</v>
+        <v>2.015168634122176</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02129050080881001</v>
+        <v>0.007697946296993052</v>
       </c>
       <c r="D25">
-        <v>0.002485950204492937</v>
+        <v>0.0009868378836532798</v>
       </c>
       <c r="E25">
-        <v>1.8553443024107</v>
+        <v>0.5152106233909137</v>
       </c>
       <c r="F25">
-        <v>1.349161107250893</v>
+        <v>0.5694254048093796</v>
       </c>
       <c r="G25">
-        <v>1.360570116471592</v>
+        <v>0.4740159274226698</v>
       </c>
       <c r="H25">
-        <v>0.6581249516684693</v>
+        <v>0.4381008095212735</v>
       </c>
       <c r="I25">
-        <v>1.003180548395548</v>
+        <v>0.4197530610044709</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.217890626775841</v>
+        <v>1.776626452146161</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.006728519194957983</v>
+        <v>0.01778177153735072</v>
       </c>
       <c r="D2">
-        <v>0.0008797679034433514</v>
+        <v>0.002066048824717726</v>
       </c>
       <c r="E2">
-        <v>0.4328853915826016</v>
+        <v>1.520554533848596</v>
       </c>
       <c r="F2">
-        <v>0.5140666435330417</v>
+        <v>1.122819213992685</v>
       </c>
       <c r="G2">
-        <v>0.4148371388643</v>
+        <v>1.127243184121482</v>
       </c>
       <c r="H2">
-        <v>0.415906419037583</v>
+        <v>0.5556434040951217</v>
       </c>
       <c r="I2">
-        <v>0.378528808120933</v>
+        <v>0.8345574053082174</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.604195653508384</v>
+        <v>3.50812319065642</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.006076801449463431</v>
+        <v>0.01543111721658974</v>
       </c>
       <c r="D3">
-        <v>0.0008078252901420058</v>
+        <v>0.001790480322990007</v>
       </c>
       <c r="E3">
-        <v>0.3773509119814804</v>
+        <v>1.301752182798012</v>
       </c>
       <c r="F3">
-        <v>0.477166177030341</v>
+        <v>0.973188210083606</v>
       </c>
       <c r="G3">
-        <v>0.3751547748629775</v>
+        <v>0.9728900190130929</v>
       </c>
       <c r="H3">
-        <v>0.401380075461347</v>
+        <v>0.4882445316827102</v>
       </c>
       <c r="I3">
-        <v>0.3510449145856356</v>
+        <v>0.7231121535922114</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.489284539608462</v>
+        <v>3.039381204774088</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.005679248823945215</v>
+        <v>0.01399865067214989</v>
       </c>
       <c r="D4">
-        <v>0.000763964996567168</v>
+        <v>0.001624466758356036</v>
       </c>
       <c r="E4">
-        <v>0.3433622218953474</v>
+        <v>1.170480460678363</v>
       </c>
       <c r="F4">
-        <v>0.4548086757983754</v>
+        <v>0.8828167260130613</v>
       </c>
       <c r="G4">
-        <v>0.3509929734859725</v>
+        <v>0.8796006898333246</v>
       </c>
       <c r="H4">
-        <v>0.3927130817850184</v>
+        <v>0.4477019360922583</v>
       </c>
       <c r="I4">
-        <v>0.334390143325102</v>
+        <v>0.6558139703891683</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.41967317052405</v>
+        <v>2.756463819234938</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.005517902011231257</v>
+        <v>0.01341728470804782</v>
       </c>
       <c r="D5">
-        <v>0.0007461718022279129</v>
+        <v>0.001557460296445434</v>
       </c>
       <c r="E5">
-        <v>0.3295368069885853</v>
+        <v>1.117638018682612</v>
       </c>
       <c r="F5">
-        <v>0.4457726492480845</v>
+        <v>0.8463197899780397</v>
       </c>
       <c r="G5">
-        <v>0.3411973456554591</v>
+        <v>0.8419068757070676</v>
       </c>
       <c r="H5">
-        <v>0.3892444681041241</v>
+        <v>0.4313686496662541</v>
       </c>
       <c r="I5">
-        <v>0.3276582463111168</v>
+        <v>0.6286374527339333</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.391541781391453</v>
+        <v>2.642246385296971</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.005491150427758384</v>
+        <v>0.01332088295159295</v>
       </c>
       <c r="D6">
-        <v>0.0007432221500911496</v>
+        <v>0.001546368801781384</v>
       </c>
       <c r="E6">
-        <v>0.327242564663635</v>
+        <v>1.108899624624911</v>
       </c>
       <c r="F6">
-        <v>0.444276729850813</v>
+        <v>0.8402781191753377</v>
       </c>
       <c r="G6">
-        <v>0.3395738211245032</v>
+        <v>0.835665903606909</v>
       </c>
       <c r="H6">
-        <v>0.3886723230525035</v>
+        <v>0.4286672390606014</v>
       </c>
       <c r="I6">
-        <v>0.3265437343539261</v>
+        <v>0.6241387928538558</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.386884778666513</v>
+        <v>2.623341172488438</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.005677070170630572</v>
+        <v>0.01399080099720607</v>
       </c>
       <c r="D7">
-        <v>0.0007637247050613638</v>
+        <v>0.001623560661274226</v>
       </c>
       <c r="E7">
-        <v>0.3431756683244203</v>
+        <v>1.169765321163098</v>
       </c>
       <c r="F7">
-        <v>0.454686510413751</v>
+        <v>0.8823232390326439</v>
       </c>
       <c r="G7">
-        <v>0.3508606625685928</v>
+        <v>0.8790910970487005</v>
       </c>
       <c r="H7">
-        <v>0.3926660469550143</v>
+        <v>0.447480927241898</v>
       </c>
       <c r="I7">
-        <v>0.3342991321805897</v>
+        <v>0.6554464996687486</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.419292828240373</v>
+        <v>2.754919293553883</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.006503268574064691</v>
+        <v>0.01696879649209393</v>
       </c>
       <c r="D8">
-        <v>0.0008548980653255711</v>
+        <v>0.001970269577972417</v>
       </c>
       <c r="E8">
-        <v>0.4137129092959952</v>
+        <v>1.444396724799077</v>
       </c>
       <c r="F8">
-        <v>0.5012808901624766</v>
+        <v>1.070884694251475</v>
       </c>
       <c r="G8">
-        <v>0.4011120680816163</v>
+        <v>1.073682254265066</v>
       </c>
       <c r="H8">
-        <v>0.4108452740905477</v>
+        <v>0.5322152312831605</v>
       </c>
       <c r="I8">
-        <v>0.3690063707470514</v>
+        <v>0.7958740205966066</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.564377203308595</v>
+        <v>3.345387377658085</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.00814401422202593</v>
+        <v>0.02291189973183805</v>
       </c>
       <c r="D9">
-        <v>0.001036116788627695</v>
+        <v>0.002684016682886536</v>
       </c>
       <c r="E9">
-        <v>0.5530185435665942</v>
+        <v>2.013526671630117</v>
       </c>
       <c r="F9">
-        <v>0.595056017112114</v>
+        <v>1.454947657693651</v>
       </c>
       <c r="G9">
-        <v>0.5013017407642621</v>
+        <v>1.469587020481754</v>
       </c>
       <c r="H9">
-        <v>0.4485062746539938</v>
+        <v>0.7062066659198649</v>
       </c>
       <c r="I9">
-        <v>0.4388371859021873</v>
+        <v>1.08200955080369</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.856474353692022</v>
+        <v>4.549912689889879</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.009362015047557293</v>
+        <v>0.02736740572450458</v>
       </c>
       <c r="D10">
-        <v>0.001170690267082719</v>
+        <v>0.003243902163482915</v>
       </c>
       <c r="E10">
-        <v>0.6561296499827876</v>
+        <v>2.460262123049262</v>
       </c>
       <c r="F10">
-        <v>0.6654628728308296</v>
+        <v>1.749521062147124</v>
       </c>
       <c r="G10">
-        <v>0.5759689139247541</v>
+        <v>1.773134773548264</v>
       </c>
       <c r="H10">
-        <v>0.4774197779458689</v>
+        <v>0.8406142461514037</v>
       </c>
       <c r="I10">
-        <v>0.4912553836842619</v>
+        <v>1.301582701696219</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.075855294684573</v>
+        <v>5.475454319299672</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.009918848095985311</v>
+        <v>0.0294200685615138</v>
       </c>
       <c r="D11">
-        <v>0.001232215773638856</v>
+        <v>0.003510679240944725</v>
       </c>
       <c r="E11">
-        <v>0.7032396335836353</v>
+        <v>2.672379505472264</v>
       </c>
       <c r="F11">
-        <v>0.6978308986636961</v>
+        <v>1.887164884098212</v>
       </c>
       <c r="G11">
-        <v>0.6101787504348692</v>
+        <v>1.914991767162235</v>
       </c>
       <c r="H11">
-        <v>0.4908474577540858</v>
+        <v>0.9036498457869016</v>
       </c>
       <c r="I11">
-        <v>0.5153513634726465</v>
+        <v>1.404215854902532</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.17672900672693</v>
+        <v>5.908433154322211</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01013010071406484</v>
+        <v>0.03020165119540508</v>
       </c>
       <c r="D12">
-        <v>0.001255557420938302</v>
+        <v>0.003613905002049833</v>
       </c>
       <c r="E12">
-        <v>0.7211111176288938</v>
+        <v>2.754250148078441</v>
       </c>
       <c r="F12">
-        <v>0.7101373296406308</v>
+        <v>1.939900348767651</v>
       </c>
       <c r="G12">
-        <v>0.6231689435713008</v>
+        <v>1.969348569513357</v>
       </c>
       <c r="H12">
-        <v>0.4959719445542419</v>
+        <v>0.9278361915945936</v>
       </c>
       <c r="I12">
-        <v>0.5245124474168676</v>
+        <v>1.443543647454632</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.21508431669082</v>
+        <v>6.074406724815162</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01008458632070841</v>
+        <v>0.0300331232283142</v>
       </c>
       <c r="D13">
-        <v>0.001250528467938494</v>
+        <v>0.003591566984876948</v>
       </c>
       <c r="E13">
-        <v>0.7172607109845899</v>
+        <v>2.736544322234209</v>
       </c>
       <c r="F13">
-        <v>0.7074847156648474</v>
+        <v>1.928514027468921</v>
       </c>
       <c r="G13">
-        <v>0.6203696757861223</v>
+        <v>1.95761178619253</v>
       </c>
       <c r="H13">
-        <v>0.4948665249933981</v>
+        <v>0.9226124075787538</v>
       </c>
       <c r="I13">
-        <v>0.5225378159277341</v>
+        <v>1.435051946745062</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.206816818587299</v>
+        <v>6.038566643303852</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.009936220144879826</v>
+        <v>0.02948428053024799</v>
       </c>
       <c r="D14">
-        <v>0.001234135242992096</v>
+        <v>0.003519124501110582</v>
       </c>
       <c r="E14">
-        <v>0.7047092759485309</v>
+        <v>2.679082368883385</v>
       </c>
       <c r="F14">
-        <v>0.6988423638079126</v>
+        <v>1.891490630558309</v>
       </c>
       <c r="G14">
-        <v>0.6112467426643207</v>
+        <v>1.919450338005504</v>
       </c>
       <c r="H14">
-        <v>0.4912682552297838</v>
+        <v>0.9056330630503737</v>
       </c>
       <c r="I14">
-        <v>0.5161043182866933</v>
+        <v>1.40744168115377</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.179881371418446</v>
+        <v>5.922045703302388</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.009845392495471117</v>
+        <v>0.02914867420920331</v>
       </c>
       <c r="D15">
-        <v>0.001224099528862155</v>
+        <v>0.003475053846685228</v>
       </c>
       <c r="E15">
-        <v>0.6970253985258097</v>
+        <v>2.644095345001915</v>
       </c>
       <c r="F15">
-        <v>0.693555117943859</v>
+        <v>1.86889536909554</v>
       </c>
       <c r="G15">
-        <v>0.605663348196174</v>
+        <v>1.896161591430371</v>
       </c>
       <c r="H15">
-        <v>0.4890693893524372</v>
+        <v>0.8952752956978713</v>
       </c>
       <c r="I15">
-        <v>0.5121683756061799</v>
+        <v>1.390592029103885</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.163403085112861</v>
+        <v>5.850944980896543</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.009325679808874554</v>
+        <v>0.02723382664042617</v>
       </c>
       <c r="D16">
-        <v>0.001166675533008643</v>
+        <v>0.003226748345879216</v>
       </c>
       <c r="E16">
-        <v>0.6530552318172482</v>
+        <v>2.446600605799929</v>
       </c>
       <c r="F16">
-        <v>0.663354424801156</v>
+        <v>1.740606348241414</v>
       </c>
       <c r="G16">
-        <v>0.5737381753344266</v>
+        <v>1.763947930301981</v>
       </c>
       <c r="H16">
-        <v>0.4765477940424887</v>
+        <v>0.8365364400011686</v>
       </c>
       <c r="I16">
-        <v>0.4896857341569927</v>
+        <v>1.29493627439156</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.069284775670098</v>
+        <v>5.447422960415508</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.009007556100804948</v>
+        <v>0.02606613441201944</v>
       </c>
       <c r="D17">
-        <v>0.001131525787663179</v>
+        <v>0.003077816601964045</v>
       </c>
       <c r="E17">
-        <v>0.6261350971456068</v>
+        <v>2.327899038769843</v>
       </c>
       <c r="F17">
-        <v>0.6449146304703959</v>
+        <v>1.662897712448398</v>
       </c>
       <c r="G17">
-        <v>0.5542159257400954</v>
+        <v>1.683869831981184</v>
       </c>
       <c r="H17">
-        <v>0.4689367221727991</v>
+        <v>0.8010164051750905</v>
       </c>
       <c r="I17">
-        <v>0.4759578584805837</v>
+        <v>1.237003955286752</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.011823208150531</v>
+        <v>5.203133781995177</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.008824839663560624</v>
+        <v>0.02539690301693298</v>
       </c>
       <c r="D18">
-        <v>0.001111337560338654</v>
+        <v>0.002993259114804303</v>
       </c>
       <c r="E18">
-        <v>0.6106704135292489</v>
+        <v>2.260443945731595</v>
       </c>
       <c r="F18">
-        <v>0.6343404807311117</v>
+        <v>1.618538504716398</v>
       </c>
       <c r="G18">
-        <v>0.5430101100603792</v>
+        <v>1.638159585949097</v>
       </c>
       <c r="H18">
-        <v>0.4645848864146274</v>
+        <v>0.7807614523587745</v>
       </c>
       <c r="I18">
-        <v>0.4680855176505787</v>
+        <v>1.203936973431496</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.978874020669139</v>
+        <v>5.06372964224937</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.008763019797221716</v>
+        <v>0.02517070748280759</v>
       </c>
       <c r="D19">
-        <v>0.001104507180555103</v>
+        <v>0.002964806422070865</v>
       </c>
       <c r="E19">
-        <v>0.6054375336137952</v>
+        <v>2.237738011085597</v>
       </c>
       <c r="F19">
-        <v>0.6307657236869346</v>
+        <v>1.60357453746559</v>
       </c>
       <c r="G19">
-        <v>0.5392199201961887</v>
+        <v>1.622740011245753</v>
       </c>
       <c r="H19">
-        <v>0.4631158635002066</v>
+        <v>0.7739323208816415</v>
       </c>
       <c r="I19">
-        <v>0.4654241140248274</v>
+        <v>1.192782788624328</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.967735314281811</v>
+        <v>5.016711084466579</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.00904139404655524</v>
+        <v>0.02619018548575269</v>
       </c>
       <c r="D20">
-        <v>0.001135264546594072</v>
+        <v>0.003093553309829744</v>
       </c>
       <c r="E20">
-        <v>0.6289987995033499</v>
+        <v>2.340448471648841</v>
       </c>
       <c r="F20">
-        <v>0.6468742693821667</v>
+        <v>1.671134467194463</v>
       </c>
       <c r="G20">
-        <v>0.55629173112834</v>
+        <v>1.692357549543061</v>
       </c>
       <c r="H20">
-        <v>0.469744256791671</v>
+        <v>0.804779137281372</v>
       </c>
       <c r="I20">
-        <v>0.4774167718913844</v>
+        <v>1.243144182464633</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.017929604277867</v>
+        <v>5.229022442084329</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.009979788284667279</v>
+        <v>0.02964536787089145</v>
       </c>
       <c r="D21">
-        <v>0.001238949162306824</v>
+        <v>0.003540338603601256</v>
       </c>
       <c r="E21">
-        <v>0.7083950486137951</v>
+        <v>2.695916014689203</v>
       </c>
       <c r="F21">
-        <v>0.7013794881263919</v>
+        <v>1.902347902314034</v>
       </c>
       <c r="G21">
-        <v>0.6139253957688595</v>
+        <v>1.93064111750877</v>
       </c>
       <c r="H21">
-        <v>0.4923240747731654</v>
+        <v>0.9106113495918748</v>
       </c>
       <c r="I21">
-        <v>0.5179929996918275</v>
+        <v>1.415538341151446</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.187788699467148</v>
+        <v>5.956213517639071</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01059536607061062</v>
+        <v>0.03192880245686069</v>
       </c>
       <c r="D22">
-        <v>0.001306964959901791</v>
+        <v>0.00384547456353701</v>
       </c>
       <c r="E22">
-        <v>0.7604725738272293</v>
+        <v>2.937406584105133</v>
       </c>
       <c r="F22">
-        <v>0.737289768870852</v>
+        <v>2.057080800614813</v>
       </c>
       <c r="G22">
-        <v>0.6518005599495496</v>
+        <v>2.090149930549046</v>
       </c>
       <c r="H22">
-        <v>0.5073128822142507</v>
+        <v>0.9816462168332691</v>
       </c>
       <c r="I22">
-        <v>0.5447246176007496</v>
+        <v>1.530943720304521</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.299715244977108</v>
+        <v>6.443380222286294</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01026661325928302</v>
+        <v>0.03070757551451209</v>
       </c>
       <c r="D23">
-        <v>0.001270640865492112</v>
+        <v>0.003681234005604495</v>
       </c>
       <c r="E23">
-        <v>0.7326597997577977</v>
+        <v>2.807578728038749</v>
       </c>
       <c r="F23">
-        <v>0.7180972507515833</v>
+        <v>1.974133002273675</v>
       </c>
       <c r="G23">
-        <v>0.631566594094096</v>
+        <v>2.004636267257808</v>
       </c>
       <c r="H23">
-        <v>0.499291815127151</v>
+        <v>0.9435466330099871</v>
       </c>
       <c r="I23">
-        <v>0.5304378499823486</v>
+        <v>1.46907464791478</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.23989370608416</v>
+        <v>6.182172477639142</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.009026095359509156</v>
+        <v>0.02613409552627388</v>
       </c>
       <c r="D24">
-        <v>0.001133574192012432</v>
+        <v>0.003086435459639603</v>
       </c>
       <c r="E24">
-        <v>0.6277040823208324</v>
+        <v>2.334772438112083</v>
       </c>
       <c r="F24">
-        <v>0.6459882321519217</v>
+        <v>1.667409651068695</v>
       </c>
       <c r="G24">
-        <v>0.5553532041648452</v>
+        <v>1.688519238771818</v>
       </c>
       <c r="H24">
-        <v>0.4693790960480442</v>
+        <v>0.8030774923253716</v>
       </c>
       <c r="I24">
-        <v>0.476757134878909</v>
+        <v>1.240367446075368</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.015168634122176</v>
+        <v>5.217314958366387</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.007697946296993052</v>
+        <v>0.0212905008085329</v>
       </c>
       <c r="D25">
-        <v>0.0009868378836532798</v>
+        <v>0.002485950204416554</v>
       </c>
       <c r="E25">
-        <v>0.5152106233909137</v>
+        <v>1.855344302410742</v>
       </c>
       <c r="F25">
-        <v>0.5694254048093796</v>
+        <v>1.349161107250865</v>
       </c>
       <c r="G25">
-        <v>0.4740159274226698</v>
+        <v>1.360570116471649</v>
       </c>
       <c r="H25">
-        <v>0.4381008095212735</v>
+        <v>0.6581249516683556</v>
       </c>
       <c r="I25">
-        <v>0.4197530610044709</v>
+        <v>1.003180548395562</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.776626452146161</v>
+        <v>4.217890626775784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01778177153735072</v>
+        <v>0.3497083343721101</v>
       </c>
       <c r="D2">
-        <v>0.002066048824717726</v>
+        <v>0.08685699819208281</v>
       </c>
       <c r="E2">
-        <v>1.520554533848596</v>
+        <v>0.1933292150381263</v>
       </c>
       <c r="F2">
-        <v>1.122819213992685</v>
+        <v>0.3271229715708515</v>
       </c>
       <c r="G2">
-        <v>1.127243184121482</v>
+        <v>0.2260905678600125</v>
       </c>
       <c r="H2">
-        <v>0.5556434040951217</v>
+        <v>0.0002502273078301975</v>
       </c>
       <c r="I2">
-        <v>0.8345574053082174</v>
+        <v>0.001790246144708796</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2293747791360872</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3625103750783332</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.176917458991056</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2144286667648529</v>
       </c>
       <c r="O2">
-        <v>3.50812319065642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.9082497060758357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01543111721658974</v>
+        <v>0.3145737782366353</v>
       </c>
       <c r="D3">
-        <v>0.001790480322990007</v>
+        <v>0.07718681290606355</v>
       </c>
       <c r="E3">
-        <v>1.301752182798012</v>
+        <v>0.1731359069847329</v>
       </c>
       <c r="F3">
-        <v>0.973188210083606</v>
+        <v>0.3152590671749209</v>
       </c>
       <c r="G3">
-        <v>0.9728900190130929</v>
+        <v>0.2226372289088872</v>
       </c>
       <c r="H3">
-        <v>0.4882445316827102</v>
+        <v>6.398755847403237E-06</v>
       </c>
       <c r="I3">
-        <v>0.7231121535922114</v>
+        <v>0.0009223126567525775</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2330041520151127</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3515639846797178</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4.516173706810491</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1913773206933556</v>
       </c>
       <c r="O3">
-        <v>3.039381204774088</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.9082108303798861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01399865067214989</v>
+        <v>0.2926833902116925</v>
       </c>
       <c r="D4">
-        <v>0.001624466758356036</v>
+        <v>0.07125149819759002</v>
       </c>
       <c r="E4">
-        <v>1.170480460678363</v>
+        <v>0.1606672124585415</v>
       </c>
       <c r="F4">
-        <v>0.8828167260130613</v>
+        <v>0.3085483148311141</v>
       </c>
       <c r="G4">
-        <v>0.8796006898333246</v>
+        <v>0.2210243607293094</v>
       </c>
       <c r="H4">
-        <v>0.4477019360922583</v>
+        <v>3.518010244185632E-05</v>
       </c>
       <c r="I4">
-        <v>0.6558139703891683</v>
+        <v>0.0006057050967958055</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.235568736144856</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3451145976967496</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>4.109718997285484</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1772460235018372</v>
       </c>
       <c r="O4">
-        <v>2.756463819234938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.9099588912498433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01341728470804782</v>
+        <v>0.2830000444840692</v>
       </c>
       <c r="D5">
-        <v>0.001557460296445434</v>
+        <v>0.06890254438104648</v>
       </c>
       <c r="E5">
-        <v>1.117638018682612</v>
+        <v>0.1554302463445012</v>
       </c>
       <c r="F5">
-        <v>0.8463197899780397</v>
+        <v>0.3056149862658373</v>
       </c>
       <c r="G5">
-        <v>0.8419068757070676</v>
+        <v>0.2201788647101708</v>
       </c>
       <c r="H5">
-        <v>0.4313686496662541</v>
+        <v>8.988460866676817E-05</v>
       </c>
       <c r="I5">
-        <v>0.6286374527339333</v>
+        <v>0.0005907736465746716</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2365337974627124</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3420755601244139</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.943842875675841</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.171558885862332</v>
       </c>
       <c r="O5">
-        <v>2.642246385296971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.9101022497838187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01332088295159295</v>
+        <v>0.2805531087416853</v>
       </c>
       <c r="D6">
-        <v>0.001546368801781384</v>
+        <v>0.06859793611635467</v>
       </c>
       <c r="E6">
-        <v>1.108899624624911</v>
+        <v>0.1543914716010022</v>
       </c>
       <c r="F6">
-        <v>0.8402781191753377</v>
+        <v>0.3047261236466028</v>
       </c>
       <c r="G6">
-        <v>0.835665903606909</v>
+        <v>0.2196683635641961</v>
       </c>
       <c r="H6">
-        <v>0.4286672390606014</v>
+        <v>0.0001021119571833484</v>
       </c>
       <c r="I6">
-        <v>0.6241387928538558</v>
+        <v>0.0006753593622281784</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2365016738936703</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3409940087483143</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3.916248189712803</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1706978499370138</v>
       </c>
       <c r="O6">
-        <v>2.623341172488438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.9089380338848088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01399080099720607</v>
+        <v>0.2902667993502632</v>
       </c>
       <c r="D7">
-        <v>0.001623560661274226</v>
+        <v>0.07145400327367923</v>
       </c>
       <c r="E7">
-        <v>1.169765321163098</v>
+        <v>0.1601367202832868</v>
       </c>
       <c r="F7">
-        <v>0.8823232390326439</v>
+        <v>0.3073885422916334</v>
       </c>
       <c r="G7">
-        <v>0.8790910970487005</v>
+        <v>0.2199821747611139</v>
       </c>
       <c r="H7">
-        <v>0.447480927241898</v>
+        <v>3.672428481804602E-05</v>
       </c>
       <c r="I7">
-        <v>0.6554464996687486</v>
+        <v>0.0008189586676419225</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2350438340098435</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3434858091506783</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>4.107378116902851</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1773972587282131</v>
       </c>
       <c r="O7">
-        <v>2.754919293553883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.9066480052122188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01696879649209393</v>
+        <v>0.3346086989265302</v>
       </c>
       <c r="D8">
-        <v>0.001970269577972417</v>
+        <v>0.08383557969160904</v>
       </c>
       <c r="E8">
-        <v>1.444396724799077</v>
+        <v>0.1857679104886856</v>
       </c>
       <c r="F8">
-        <v>1.070884694251475</v>
+        <v>0.3214265930571969</v>
       </c>
       <c r="G8">
-        <v>1.073682254265066</v>
+        <v>0.2234283731399032</v>
       </c>
       <c r="H8">
-        <v>0.5322152312831605</v>
+        <v>0.0001253708464361569</v>
       </c>
       <c r="I8">
-        <v>0.7958740205966066</v>
+        <v>0.001695245276756907</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2298481460898429</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3565738534810272</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.949088867245848</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2067802974789359</v>
       </c>
       <c r="O8">
-        <v>3.345387377658085</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.9034878435229672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02291189973183805</v>
+        <v>0.4231937111911748</v>
       </c>
       <c r="D9">
-        <v>0.002684016682886536</v>
+        <v>0.107734695345556</v>
       </c>
       <c r="E9">
-        <v>2.013526671630117</v>
+        <v>0.2363526461036756</v>
       </c>
       <c r="F9">
-        <v>1.454947657693651</v>
+        <v>0.355874642864265</v>
       </c>
       <c r="G9">
-        <v>1.469587020481754</v>
+        <v>0.2363897631573124</v>
       </c>
       <c r="H9">
-        <v>0.7062066659198649</v>
+        <v>0.001834339976922283</v>
       </c>
       <c r="I9">
-        <v>1.08200955080369</v>
+        <v>0.004960096384674983</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2234277249652337</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3874267291235611</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.595057223132642</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2642573012533376</v>
       </c>
       <c r="O9">
-        <v>4.549912689889879</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.918272881853639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02736740572450458</v>
+        <v>0.4772598747761663</v>
       </c>
       <c r="D10">
-        <v>0.003243902163482915</v>
+        <v>0.1266982434253379</v>
       </c>
       <c r="E10">
-        <v>2.460262123049262</v>
+        <v>0.2636514132724486</v>
       </c>
       <c r="F10">
-        <v>1.749521062147124</v>
+        <v>0.3786719135708623</v>
       </c>
       <c r="G10">
-        <v>1.773134773548264</v>
+        <v>0.2435493006639717</v>
       </c>
       <c r="H10">
-        <v>0.8406142461514037</v>
+        <v>0.004201096658345005</v>
       </c>
       <c r="I10">
-        <v>1.301582701696219</v>
+        <v>0.008707360091596783</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2178440033615914</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4039739403386804</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.802474502547511</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2922643145676176</v>
       </c>
       <c r="O10">
-        <v>5.475454319299672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9222692739174931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0294200685615138</v>
+        <v>0.4277642067526983</v>
       </c>
       <c r="D11">
-        <v>0.003510679240944725</v>
+        <v>0.1468846425788968</v>
       </c>
       <c r="E11">
-        <v>2.672379505472264</v>
+        <v>0.2003876798331063</v>
       </c>
       <c r="F11">
-        <v>1.887164884098212</v>
+        <v>0.3416065771136942</v>
       </c>
       <c r="G11">
-        <v>1.914991767162235</v>
+        <v>0.2045046367993635</v>
       </c>
       <c r="H11">
-        <v>0.9036498457869016</v>
+        <v>0.02268153063593559</v>
       </c>
       <c r="I11">
-        <v>1.404215854902532</v>
+        <v>0.01023651450992258</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1937934736615361</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3508364218716338</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.345279636026589</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1929905742595963</v>
       </c>
       <c r="O11">
-        <v>5.908433154322211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.7893222075798434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03020165119540508</v>
+        <v>0.3811371588052737</v>
       </c>
       <c r="D12">
-        <v>0.003613905002049833</v>
+        <v>0.1602551668960075</v>
       </c>
       <c r="E12">
-        <v>2.754250148078441</v>
+        <v>0.1507244380687389</v>
       </c>
       <c r="F12">
-        <v>1.939900348767651</v>
+        <v>0.3081307467148733</v>
       </c>
       <c r="G12">
-        <v>1.969348569513357</v>
+        <v>0.1736721117809523</v>
       </c>
       <c r="H12">
-        <v>0.9278361915945936</v>
+        <v>0.061048186743065</v>
       </c>
       <c r="I12">
-        <v>1.443543647454632</v>
+        <v>0.01036726061279047</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1763231140954602</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3076659273147477</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.548469649114736</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1229028851485552</v>
       </c>
       <c r="O12">
-        <v>6.074406724815162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.6874323598626688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0300331232283142</v>
+        <v>0.3306962929172386</v>
       </c>
       <c r="D13">
-        <v>0.003591566984876948</v>
+        <v>0.1693852266965195</v>
       </c>
       <c r="E13">
-        <v>2.736544322234209</v>
+        <v>0.1081316490610611</v>
       </c>
       <c r="F13">
-        <v>1.928514027468921</v>
+        <v>0.2735628755668813</v>
       </c>
       <c r="G13">
-        <v>1.95761178619253</v>
+        <v>0.1455869098219935</v>
       </c>
       <c r="H13">
-        <v>0.9226124075787538</v>
+        <v>0.1162667189441748</v>
       </c>
       <c r="I13">
-        <v>1.435051946745062</v>
+        <v>0.009698972337401024</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1619432057633787</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2671678013367327</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.499779273959405</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07171708682126976</v>
       </c>
       <c r="O13">
-        <v>6.038566643303852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.5977386244597653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02948428053024799</v>
+        <v>0.2938611050874016</v>
       </c>
       <c r="D14">
-        <v>0.003519124501110582</v>
+        <v>0.1739488810235628</v>
       </c>
       <c r="E14">
-        <v>2.679082368883385</v>
+        <v>0.08286557028172936</v>
       </c>
       <c r="F14">
-        <v>1.891490630558309</v>
+        <v>0.2489540924240572</v>
       </c>
       <c r="G14">
-        <v>1.919450338005504</v>
+        <v>0.1274021723051675</v>
       </c>
       <c r="H14">
-        <v>0.9056330630503737</v>
+        <v>0.1651716053016941</v>
       </c>
       <c r="I14">
-        <v>1.40744168115377</v>
+        <v>0.008971524133595032</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1533501984303314</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2402828941958823</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.351511007744932</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04735612259896271</v>
       </c>
       <c r="O14">
-        <v>5.922045703302388</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5411179504229437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02914867420920331</v>
+        <v>0.2831617232814807</v>
       </c>
       <c r="D15">
-        <v>0.003475053846685228</v>
+        <v>0.1741537450172075</v>
       </c>
       <c r="E15">
-        <v>2.644095345001915</v>
+        <v>0.07706966582763464</v>
       </c>
       <c r="F15">
-        <v>1.86889536909554</v>
+        <v>0.2423047428308678</v>
       </c>
       <c r="G15">
-        <v>1.896161591430371</v>
+        <v>0.1230507039229138</v>
       </c>
       <c r="H15">
-        <v>0.8952752956978713</v>
+        <v>0.1774882079202342</v>
       </c>
       <c r="I15">
-        <v>1.390592029103885</v>
+        <v>0.008725765250776618</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1516731671664573</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2335837109881211</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.261612270539672</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04291077591096837</v>
       </c>
       <c r="O15">
-        <v>5.850944980896543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.5283403466026471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02723382664042617</v>
+        <v>0.2705449753925251</v>
       </c>
       <c r="D16">
-        <v>0.003226748345879216</v>
+        <v>0.1639089629212549</v>
       </c>
       <c r="E16">
-        <v>2.446600605799929</v>
+        <v>0.07510811536092277</v>
       </c>
       <c r="F16">
-        <v>1.740606348241414</v>
+        <v>0.238759327529749</v>
       </c>
       <c r="G16">
-        <v>1.763947930301981</v>
+        <v>0.1249084971616483</v>
       </c>
       <c r="H16">
-        <v>0.8365364400011686</v>
+        <v>0.1638144953620895</v>
       </c>
       <c r="I16">
-        <v>1.29493627439156</v>
+        <v>0.007295134691461591</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1564342341887297</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.234250694289468</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.749956253026994</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04288948929963965</v>
       </c>
       <c r="O16">
-        <v>5.447422960415508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5420367799469972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02606613441201944</v>
+        <v>0.2797451358267864</v>
       </c>
       <c r="D17">
-        <v>0.003077816601964045</v>
+        <v>0.153659650901929</v>
       </c>
       <c r="E17">
-        <v>2.327899038769843</v>
+        <v>0.0859640902445129</v>
       </c>
       <c r="F17">
-        <v>1.662897712448398</v>
+        <v>0.2490414843358764</v>
       </c>
       <c r="G17">
-        <v>1.683869831981184</v>
+        <v>0.1358323115006144</v>
       </c>
       <c r="H17">
-        <v>0.8010164051750905</v>
+        <v>0.1255623500733378</v>
       </c>
       <c r="I17">
-        <v>1.237003955286752</v>
+        <v>0.006625852689222889</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1646202430089758</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2486754282538826</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.437302772452824</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0537992077710534</v>
       </c>
       <c r="O17">
-        <v>5.203133781995177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.5822145148087401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02539690301693298</v>
+        <v>0.3119295617612181</v>
       </c>
       <c r="D18">
-        <v>0.002993259114804303</v>
+        <v>0.142277025323807</v>
       </c>
       <c r="E18">
-        <v>2.260443945731595</v>
+        <v>0.1137744180975915</v>
       </c>
       <c r="F18">
-        <v>1.618538504716398</v>
+        <v>0.2736535598110521</v>
       </c>
       <c r="G18">
-        <v>1.638159585949097</v>
+        <v>0.1574615979387488</v>
       </c>
       <c r="H18">
-        <v>0.7807614523587745</v>
+        <v>0.07267990680627179</v>
       </c>
       <c r="I18">
-        <v>1.203936973431496</v>
+        <v>0.006235248342206567</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1774430628922801</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2790299842030421</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.259459829929312</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08521197616351373</v>
       </c>
       <c r="O18">
-        <v>5.06372964224937</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.6548643044612277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02517070748280759</v>
+        <v>0.3596325245018477</v>
       </c>
       <c r="D19">
-        <v>0.002964806422070865</v>
+        <v>0.131701349429278</v>
       </c>
       <c r="E19">
-        <v>2.237738011085597</v>
+        <v>0.1596014395698191</v>
       </c>
       <c r="F19">
-        <v>1.60357453746559</v>
+        <v>0.3073893021657526</v>
       </c>
       <c r="G19">
-        <v>1.622740011245753</v>
+        <v>0.1865824561249809</v>
       </c>
       <c r="H19">
-        <v>0.7739323208816415</v>
+        <v>0.02783637613320167</v>
       </c>
       <c r="I19">
-        <v>1.192782788624328</v>
+        <v>0.006592175099306097</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1931197676362544</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3202196565830988</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.20220601102551</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1460506975844993</v>
       </c>
       <c r="O19">
-        <v>5.016711084466579</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.7494299489397918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02619018548575269</v>
+        <v>0.4556024862672245</v>
       </c>
       <c r="D20">
-        <v>0.003093553309829744</v>
+        <v>0.1225236800960516</v>
       </c>
       <c r="E20">
-        <v>2.340448471648841</v>
+        <v>0.2546672513074384</v>
       </c>
       <c r="F20">
-        <v>1.671134467194463</v>
+        <v>0.3687238389293199</v>
       </c>
       <c r="G20">
-        <v>1.692357549543061</v>
+        <v>0.2380574068876768</v>
       </c>
       <c r="H20">
-        <v>0.804779137281372</v>
+        <v>0.003455476751898612</v>
       </c>
       <c r="I20">
-        <v>1.243144182464633</v>
+        <v>0.008270058262682234</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2174361491216672</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3942943863612456</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.485012304214933</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2850001852374788</v>
       </c>
       <c r="O20">
-        <v>5.229022442084329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9096384827866189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02964536787089145</v>
+        <v>0.511028698934382</v>
       </c>
       <c r="D21">
-        <v>0.003540338603601256</v>
+        <v>0.1350684131532063</v>
       </c>
       <c r="E21">
-        <v>2.695916014689203</v>
+        <v>0.2903721443794396</v>
       </c>
       <c r="F21">
-        <v>1.902347902314034</v>
+        <v>0.3967059710090126</v>
       </c>
       <c r="G21">
-        <v>1.93064111750877</v>
+        <v>0.2531024211700128</v>
       </c>
       <c r="H21">
-        <v>0.9106113495918748</v>
+        <v>0.005659215671399542</v>
       </c>
       <c r="I21">
-        <v>1.415538341151446</v>
+        <v>0.01162833415987397</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2181061371277195</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4195139925403382</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.412885786200036</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3291339892250278</v>
       </c>
       <c r="O21">
-        <v>5.956213517639071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.9433246734755159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03192880245686069</v>
+        <v>0.5458106077269633</v>
       </c>
       <c r="D22">
-        <v>0.00384547456353701</v>
+        <v>0.1435944909235758</v>
       </c>
       <c r="E22">
-        <v>2.937406584105133</v>
+        <v>0.3095314610167108</v>
       </c>
       <c r="F22">
-        <v>2.057080800614813</v>
+        <v>0.4144772169796056</v>
       </c>
       <c r="G22">
-        <v>2.090149930549046</v>
+        <v>0.2624591395993576</v>
       </c>
       <c r="H22">
-        <v>0.9816462168332691</v>
+        <v>0.007363290644980008</v>
       </c>
       <c r="I22">
-        <v>1.530943720304521</v>
+        <v>0.01383494330569235</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2183546823354945</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4348965981800177</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.01957693322322</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3503023582364762</v>
       </c>
       <c r="O22">
-        <v>6.443380222286294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.9639266914181519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03070757551451209</v>
+        <v>0.530031449018793</v>
       </c>
       <c r="D23">
-        <v>0.003681234005604495</v>
+        <v>0.138751968153187</v>
       </c>
       <c r="E23">
-        <v>2.807578728038749</v>
+        <v>0.2998629206955172</v>
       </c>
       <c r="F23">
-        <v>1.974133002273675</v>
+        <v>0.4062342490213666</v>
       </c>
       <c r="G23">
-        <v>2.004636267257808</v>
+        <v>0.2586009887815308</v>
       </c>
       <c r="H23">
-        <v>0.9435466330099871</v>
+        <v>0.006441430198034948</v>
       </c>
       <c r="I23">
-        <v>1.46907464791478</v>
+        <v>0.01238286263267785</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2187981933176459</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4285222063645477</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.695883247950121</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3387121276334852</v>
       </c>
       <c r="O23">
-        <v>6.182172477639142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9565464167563675</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02613409552627388</v>
+        <v>0.4654731833326764</v>
       </c>
       <c r="D24">
-        <v>0.003086435459639603</v>
+        <v>0.1209134550169466</v>
       </c>
       <c r="E24">
-        <v>2.334772438112083</v>
+        <v>0.2623477844579938</v>
       </c>
       <c r="F24">
-        <v>1.667409651068695</v>
+        <v>0.3746268295792206</v>
       </c>
       <c r="G24">
-        <v>1.688519238771818</v>
+        <v>0.2436112932031449</v>
       </c>
       <c r="H24">
-        <v>0.8030774923253716</v>
+        <v>0.003441971224470541</v>
       </c>
       <c r="I24">
-        <v>1.240367446075368</v>
+        <v>0.007880393298934862</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2203817167062994</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4022919601492774</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.47068313949444</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2954598996462465</v>
       </c>
       <c r="O24">
-        <v>5.217314958366387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9275790147110854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0212905008085329</v>
+        <v>0.3952984829962531</v>
       </c>
       <c r="D25">
-        <v>0.002485950204416554</v>
+        <v>0.1016957889710071</v>
       </c>
       <c r="E25">
-        <v>1.855344302410742</v>
+        <v>0.2218721186735735</v>
       </c>
       <c r="F25">
-        <v>1.349161107250865</v>
+        <v>0.3439530804419277</v>
       </c>
       <c r="G25">
-        <v>1.360570116471649</v>
+        <v>0.2305130433782878</v>
       </c>
       <c r="H25">
-        <v>0.6581249516683556</v>
+        <v>0.001182438443655731</v>
       </c>
       <c r="I25">
-        <v>1.003180548395562</v>
+        <v>0.004213017261909258</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2238861048606822</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3759303374231351</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.149890941744047</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.249089453231278</v>
       </c>
       <c r="O25">
-        <v>4.217890626775784</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9065759447145041</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3497083343721101</v>
+        <v>0.2841479083703717</v>
       </c>
       <c r="D2">
-        <v>0.08685699819208281</v>
+        <v>0.09263685939377098</v>
       </c>
       <c r="E2">
-        <v>0.1933292150381263</v>
+        <v>0.1810166561125008</v>
       </c>
       <c r="F2">
-        <v>0.3271229715708515</v>
+        <v>0.2990139836681323</v>
       </c>
       <c r="G2">
-        <v>0.2260905678600125</v>
+        <v>0.1833823981654845</v>
       </c>
       <c r="H2">
-        <v>0.0002502273078301975</v>
+        <v>0.0002884375094411862</v>
       </c>
       <c r="I2">
-        <v>0.001790246144708796</v>
+        <v>0.002053645833519191</v>
       </c>
       <c r="J2">
-        <v>0.2293747791360872</v>
+        <v>0.2510764167456259</v>
       </c>
       <c r="K2">
-        <v>0.3625103750783332</v>
+        <v>0.3193000343621897</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1738172958528814</v>
       </c>
       <c r="M2">
-        <v>5.176917458991056</v>
+        <v>0.07877320298522861</v>
       </c>
       <c r="N2">
-        <v>0.2144286667648529</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>5.176301043937769</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2227266861444264</v>
       </c>
       <c r="Q2">
-        <v>0.9082497060758357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8245970880292077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3145737782366353</v>
+        <v>0.2579006461134981</v>
       </c>
       <c r="D3">
-        <v>0.07718681290606355</v>
+        <v>0.08171180771653042</v>
       </c>
       <c r="E3">
-        <v>0.1731359069847329</v>
+        <v>0.1629190792953352</v>
       </c>
       <c r="F3">
-        <v>0.3152590671749209</v>
+        <v>0.2910581168689035</v>
       </c>
       <c r="G3">
-        <v>0.2226372289088872</v>
+        <v>0.1835321918927093</v>
       </c>
       <c r="H3">
-        <v>6.398755847403237E-06</v>
+        <v>2.307320565764215E-05</v>
       </c>
       <c r="I3">
-        <v>0.0009223126567525775</v>
+        <v>0.001205121213185834</v>
       </c>
       <c r="J3">
-        <v>0.2330041520151127</v>
+        <v>0.2542103050227453</v>
       </c>
       <c r="K3">
-        <v>0.3515639846797178</v>
+        <v>0.3134073080563731</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1769474119570624</v>
       </c>
       <c r="M3">
-        <v>4.516173706810491</v>
+        <v>0.07215131402729469</v>
       </c>
       <c r="N3">
-        <v>0.1913773206933556</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>4.517135251155253</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1990576784558158</v>
       </c>
       <c r="Q3">
-        <v>0.9082108303798861</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.8344432112208722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2926833902116925</v>
+        <v>0.2413970233165372</v>
       </c>
       <c r="D4">
-        <v>0.07125149819759002</v>
+        <v>0.07502132195462963</v>
       </c>
       <c r="E4">
-        <v>0.1606672124585415</v>
+        <v>0.1517111487860276</v>
       </c>
       <c r="F4">
-        <v>0.3085483148311141</v>
+        <v>0.2866423866747745</v>
       </c>
       <c r="G4">
-        <v>0.2210243607293094</v>
+        <v>0.1841340230513495</v>
       </c>
       <c r="H4">
-        <v>3.518010244185632E-05</v>
+        <v>8.738783901618419E-06</v>
       </c>
       <c r="I4">
-        <v>0.0006057050967958055</v>
+        <v>0.0008575937590480365</v>
       </c>
       <c r="J4">
-        <v>0.235568736144856</v>
+        <v>0.2562995949602822</v>
       </c>
       <c r="K4">
-        <v>0.3451145976967496</v>
+        <v>0.3099360858992277</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1788680101973412</v>
       </c>
       <c r="M4">
-        <v>4.109718997285484</v>
+        <v>0.06870664383254166</v>
       </c>
       <c r="N4">
-        <v>0.1772460235018372</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4.111546227917643</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1845627323212042</v>
       </c>
       <c r="Q4">
-        <v>0.9099588912498433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8419475522043172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2830000444840692</v>
+        <v>0.2339686121831193</v>
       </c>
       <c r="D5">
-        <v>0.06890254438104648</v>
+        <v>0.07236948607335592</v>
       </c>
       <c r="E5">
-        <v>0.1554302463445012</v>
+        <v>0.1469887205226179</v>
       </c>
       <c r="F5">
-        <v>0.3056149862658373</v>
+        <v>0.2846423409408096</v>
       </c>
       <c r="G5">
-        <v>0.2201788647101708</v>
+        <v>0.184224523468842</v>
       </c>
       <c r="H5">
-        <v>8.988460866676817E-05</v>
+        <v>3.860551622958397E-05</v>
       </c>
       <c r="I5">
-        <v>0.0005907736465746716</v>
+        <v>0.0008322339328268313</v>
       </c>
       <c r="J5">
-        <v>0.2365337974627124</v>
+        <v>0.25703538988855</v>
       </c>
       <c r="K5">
-        <v>0.3420755601244139</v>
+        <v>0.3081270539546814</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1794422355717522</v>
       </c>
       <c r="M5">
-        <v>3.943842875675841</v>
+        <v>0.06734048632659295</v>
       </c>
       <c r="N5">
-        <v>0.171558885862332</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>3.94600234672879</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1787313851858769</v>
       </c>
       <c r="Q5">
-        <v>0.9101022497838187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.8444509620792928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2805531087416853</v>
+        <v>0.2319904021281189</v>
       </c>
       <c r="D6">
-        <v>0.06859793611635467</v>
+        <v>0.07201609943049192</v>
       </c>
       <c r="E6">
-        <v>0.1543914716010022</v>
+        <v>0.1460436199447059</v>
       </c>
       <c r="F6">
-        <v>0.3047261236466028</v>
+        <v>0.2839353883517042</v>
       </c>
       <c r="G6">
-        <v>0.2196683635641961</v>
+        <v>0.1839102641031545</v>
       </c>
       <c r="H6">
-        <v>0.0001021119571833484</v>
+        <v>4.606668229190092E-05</v>
       </c>
       <c r="I6">
-        <v>0.0006753593622281784</v>
+        <v>0.0009310334065428805</v>
       </c>
       <c r="J6">
-        <v>0.2365016738936703</v>
+        <v>0.2569697670310589</v>
       </c>
       <c r="K6">
-        <v>0.3409940087483143</v>
+        <v>0.3073052055955721</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1792843087624192</v>
       </c>
       <c r="M6">
-        <v>3.916248189712803</v>
+        <v>0.06697966562671276</v>
       </c>
       <c r="N6">
-        <v>0.1706978499370138</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>3.918463690669398</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1778464562545565</v>
       </c>
       <c r="Q6">
-        <v>0.9089380338848088</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8437840765545701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2902667993502632</v>
+        <v>0.2395057137892991</v>
       </c>
       <c r="D7">
-        <v>0.07145400327367923</v>
+        <v>0.07536749307077883</v>
       </c>
       <c r="E7">
-        <v>0.1601367202832868</v>
+        <v>0.1512518823285696</v>
       </c>
       <c r="F7">
-        <v>0.3073885422916334</v>
+        <v>0.2849507095459849</v>
       </c>
       <c r="G7">
-        <v>0.2199821747611139</v>
+        <v>0.184973025075621</v>
       </c>
       <c r="H7">
-        <v>3.672428481804602E-05</v>
+        <v>9.637557868646951E-06</v>
       </c>
       <c r="I7">
-        <v>0.0008189586676419225</v>
+        <v>0.001112304944753006</v>
       </c>
       <c r="J7">
-        <v>0.2350438340098435</v>
+        <v>0.2530241645495721</v>
       </c>
       <c r="K7">
-        <v>0.3434858091506783</v>
+        <v>0.307975161935989</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1779622859756209</v>
       </c>
       <c r="M7">
-        <v>4.107378116902851</v>
+        <v>0.06813491955053941</v>
       </c>
       <c r="N7">
-        <v>0.1773972587282131</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>4.109155396376309</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1846677945726967</v>
       </c>
       <c r="Q7">
-        <v>0.9066480052122188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8371793817736517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3346086989265302</v>
+        <v>0.2732701772198283</v>
       </c>
       <c r="D8">
-        <v>0.08383557969160904</v>
+        <v>0.08967192219013498</v>
       </c>
       <c r="E8">
-        <v>0.1857679104886856</v>
+        <v>0.1743542084784799</v>
       </c>
       <c r="F8">
-        <v>0.3214265930571969</v>
+        <v>0.2927413588589047</v>
       </c>
       <c r="G8">
-        <v>0.2234283731399032</v>
+        <v>0.1880066992816012</v>
       </c>
       <c r="H8">
-        <v>0.0001253708464361569</v>
+        <v>0.0001603045563289829</v>
       </c>
       <c r="I8">
-        <v>0.001695245276756907</v>
+        <v>0.00202174295240809</v>
       </c>
       <c r="J8">
-        <v>0.2298481460898429</v>
+        <v>0.2425447701155363</v>
       </c>
       <c r="K8">
-        <v>0.3565738534810272</v>
+        <v>0.3136919116231986</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1733529912018845</v>
       </c>
       <c r="M8">
-        <v>4.949088867245848</v>
+        <v>0.07522076520374554</v>
       </c>
       <c r="N8">
-        <v>0.2067802974789359</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>4.948845192781732</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2147178287247371</v>
       </c>
       <c r="Q8">
-        <v>0.9034878435229672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.817862417765042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4231937111911748</v>
+        <v>0.3392058081736593</v>
       </c>
       <c r="D9">
-        <v>0.107734695345556</v>
+        <v>0.1169321982970644</v>
       </c>
       <c r="E9">
-        <v>0.2363526461036756</v>
+        <v>0.2195649786730911</v>
       </c>
       <c r="F9">
-        <v>0.355874642864265</v>
+        <v>0.3161560363865092</v>
       </c>
       <c r="G9">
-        <v>0.2363897631573124</v>
+        <v>0.1935105037486551</v>
       </c>
       <c r="H9">
-        <v>0.001834339976922283</v>
+        <v>0.001731833011464734</v>
       </c>
       <c r="I9">
-        <v>0.004960096384674983</v>
+        <v>0.004911548034660207</v>
       </c>
       <c r="J9">
-        <v>0.2234277249652337</v>
+        <v>0.2339239834986842</v>
       </c>
       <c r="K9">
-        <v>0.3874267291235611</v>
+        <v>0.3305694853641583</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1662665103878567</v>
       </c>
       <c r="M9">
-        <v>6.595057223132642</v>
+        <v>0.09549031606893266</v>
       </c>
       <c r="N9">
-        <v>0.2642573012533376</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>6.590052324912676</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2737738302056982</v>
       </c>
       <c r="Q9">
-        <v>0.918272881853639</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8041977658468795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4772598747761663</v>
+        <v>0.3799246584152343</v>
       </c>
       <c r="D10">
-        <v>0.1266982434253379</v>
+        <v>0.1392801414385474</v>
       </c>
       <c r="E10">
-        <v>0.2636514132724486</v>
+        <v>0.2436499761807625</v>
       </c>
       <c r="F10">
-        <v>0.3786719135708623</v>
+        <v>0.3276581433654684</v>
       </c>
       <c r="G10">
-        <v>0.2435493006639717</v>
+        <v>0.2068285066243618</v>
       </c>
       <c r="H10">
-        <v>0.004201096658345005</v>
+        <v>0.003809940449789551</v>
       </c>
       <c r="I10">
-        <v>0.008707360091596783</v>
+        <v>0.008123380664788904</v>
       </c>
       <c r="J10">
-        <v>0.2178440033615914</v>
+        <v>0.2123379193991539</v>
       </c>
       <c r="K10">
-        <v>0.4039739403386804</v>
+        <v>0.3349320734229622</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1578807648910647</v>
       </c>
       <c r="M10">
-        <v>7.802474502547511</v>
+        <v>0.1099264439930501</v>
       </c>
       <c r="N10">
-        <v>0.2922643145676176</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>7.792836886487578</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3023399575795196</v>
       </c>
       <c r="Q10">
-        <v>0.9222692739174931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.778915797108823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4277642067526983</v>
+        <v>0.3446778477056682</v>
       </c>
       <c r="D11">
-        <v>0.1468846425788968</v>
+        <v>0.1621577533836103</v>
       </c>
       <c r="E11">
-        <v>0.2003876798331063</v>
+        <v>0.184497611555642</v>
       </c>
       <c r="F11">
-        <v>0.3416065771136942</v>
+        <v>0.2881595241912365</v>
       </c>
       <c r="G11">
-        <v>0.2045046367993635</v>
+        <v>0.1947514506311308</v>
       </c>
       <c r="H11">
-        <v>0.02268153063593559</v>
+        <v>0.02221839420621308</v>
       </c>
       <c r="I11">
-        <v>0.01023651450992258</v>
+        <v>0.009537838867073489</v>
       </c>
       <c r="J11">
-        <v>0.1937934736615361</v>
+        <v>0.1717218613348486</v>
       </c>
       <c r="K11">
-        <v>0.3508364218716338</v>
+        <v>0.2854721525185013</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1364528785623236</v>
       </c>
       <c r="M11">
-        <v>8.345279636026589</v>
+        <v>0.09555698654635592</v>
       </c>
       <c r="N11">
-        <v>0.1929905742595963</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>8.333696843235089</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1996932445189046</v>
       </c>
       <c r="Q11">
-        <v>0.7893222075798434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.6468080340989246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3811371588052737</v>
+        <v>0.3106759522949432</v>
       </c>
       <c r="D12">
-        <v>0.1602551668960075</v>
+        <v>0.1765110240964844</v>
       </c>
       <c r="E12">
-        <v>0.1507244380687389</v>
+        <v>0.1383763024059697</v>
       </c>
       <c r="F12">
-        <v>0.3081307467148733</v>
+        <v>0.2572598052206843</v>
       </c>
       <c r="G12">
-        <v>0.1736721117809523</v>
+        <v>0.1765375123543507</v>
       </c>
       <c r="H12">
-        <v>0.061048186743065</v>
+        <v>0.0605921116073489</v>
       </c>
       <c r="I12">
-        <v>0.01036726061279047</v>
+        <v>0.009632648059802129</v>
       </c>
       <c r="J12">
-        <v>0.1763231140954602</v>
+        <v>0.155375049189642</v>
       </c>
       <c r="K12">
-        <v>0.3076659273147477</v>
+        <v>0.2493883097650453</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1228755523442508</v>
       </c>
       <c r="M12">
-        <v>8.548469649114736</v>
+        <v>0.08248240726025813</v>
       </c>
       <c r="N12">
-        <v>0.1229028851485552</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>8.536468277021811</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1271178105332424</v>
       </c>
       <c r="Q12">
-        <v>0.6874323598626688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.5580566946731125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3306962929172386</v>
+        <v>0.2723229000248182</v>
       </c>
       <c r="D13">
-        <v>0.1693852266965195</v>
+        <v>0.1847753277932327</v>
       </c>
       <c r="E13">
-        <v>0.1081316490610611</v>
+        <v>0.09904461367571926</v>
       </c>
       <c r="F13">
-        <v>0.2735628755668813</v>
+        <v>0.2302335223668877</v>
       </c>
       <c r="G13">
-        <v>0.1455869098219935</v>
+        <v>0.1477736927229643</v>
       </c>
       <c r="H13">
-        <v>0.1162667189441748</v>
+        <v>0.1158809632654965</v>
       </c>
       <c r="I13">
-        <v>0.009698972337401024</v>
+        <v>0.009081531688167388</v>
       </c>
       <c r="J13">
-        <v>0.1619432057633787</v>
+        <v>0.151538503811441</v>
       </c>
       <c r="K13">
-        <v>0.2671678013367327</v>
+        <v>0.219583854582428</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1131723715215358</v>
       </c>
       <c r="M13">
-        <v>8.499779273959405</v>
+        <v>0.06941237108959797</v>
       </c>
       <c r="N13">
-        <v>0.07171708682126976</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>8.488702408199003</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.07398172273193282</v>
       </c>
       <c r="Q13">
-        <v>0.5977386244597653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.493158841469409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2938611050874016</v>
+        <v>0.2436778011398388</v>
       </c>
       <c r="D14">
-        <v>0.1739488810235628</v>
+        <v>0.1878566213582786</v>
       </c>
       <c r="E14">
-        <v>0.08286557028172936</v>
+        <v>0.07589022117980804</v>
       </c>
       <c r="F14">
-        <v>0.2489540924240572</v>
+        <v>0.2127146589821933</v>
       </c>
       <c r="G14">
-        <v>0.1274021723051675</v>
+        <v>0.1245639477430416</v>
       </c>
       <c r="H14">
-        <v>0.1651716053016941</v>
+        <v>0.1648559369100298</v>
       </c>
       <c r="I14">
-        <v>0.008971524133595032</v>
+        <v>0.008511050694047562</v>
       </c>
       <c r="J14">
-        <v>0.1533501984303314</v>
+        <v>0.1525813587601981</v>
       </c>
       <c r="K14">
-        <v>0.2402828941958823</v>
+        <v>0.201273257151378</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1077998453424414</v>
       </c>
       <c r="M14">
-        <v>8.351511007744932</v>
+        <v>0.06039191977215452</v>
       </c>
       <c r="N14">
-        <v>0.04735612259896271</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>8.341647120454923</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.04850339564529449</v>
       </c>
       <c r="Q14">
-        <v>0.5411179504229437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.4574150644332562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2831617232814807</v>
+        <v>0.2351016530549117</v>
       </c>
       <c r="D15">
-        <v>0.1741537450172075</v>
+        <v>0.1873335268143421</v>
       </c>
       <c r="E15">
-        <v>0.07706966582763464</v>
+        <v>0.07061535701005006</v>
       </c>
       <c r="F15">
-        <v>0.2423047428308678</v>
+        <v>0.2086355310588566</v>
       </c>
       <c r="G15">
-        <v>0.1230507039229138</v>
+        <v>0.1172988798374206</v>
       </c>
       <c r="H15">
-        <v>0.1774882079202342</v>
+        <v>0.177202789634137</v>
       </c>
       <c r="I15">
-        <v>0.008725765250776618</v>
+        <v>0.008355873835856009</v>
       </c>
       <c r="J15">
-        <v>0.1516731671664573</v>
+        <v>0.1544071477304758</v>
       </c>
       <c r="K15">
-        <v>0.2335837109881211</v>
+        <v>0.1972737149083521</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1068809837749622</v>
       </c>
       <c r="M15">
-        <v>8.261612270539672</v>
+        <v>0.05797446374786475</v>
       </c>
       <c r="N15">
-        <v>0.04291077591096837</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>8.252316916062966</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.04384515967267077</v>
       </c>
       <c r="Q15">
-        <v>0.5283403466026471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.4515083110646287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2705449753925251</v>
+        <v>0.2236528487068909</v>
       </c>
       <c r="D16">
-        <v>0.1639089629212549</v>
+        <v>0.1740698200467818</v>
       </c>
       <c r="E16">
-        <v>0.07510811536092277</v>
+        <v>0.068922198757015</v>
       </c>
       <c r="F16">
-        <v>0.238759327529749</v>
+        <v>0.2123281111355801</v>
       </c>
       <c r="G16">
-        <v>0.1249084971616483</v>
+        <v>0.1052254814281852</v>
       </c>
       <c r="H16">
-        <v>0.1638144953620895</v>
+        <v>0.1636525723586857</v>
       </c>
       <c r="I16">
-        <v>0.007295134691461591</v>
+        <v>0.007218201208671893</v>
       </c>
       <c r="J16">
-        <v>0.1564342341887297</v>
+        <v>0.1717306913865073</v>
       </c>
       <c r="K16">
-        <v>0.234250694289468</v>
+        <v>0.2032784559221277</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1113644917548022</v>
       </c>
       <c r="M16">
-        <v>7.749956253026994</v>
+        <v>0.05643572429319832</v>
       </c>
       <c r="N16">
-        <v>0.04288948929963965</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>7.743131085160826</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04421340557274256</v>
       </c>
       <c r="Q16">
-        <v>0.5420367799469972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.4809832845207325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2797451358267864</v>
+        <v>0.2297788751230598</v>
       </c>
       <c r="D17">
-        <v>0.153659650901929</v>
+        <v>0.1626740388118151</v>
       </c>
       <c r="E17">
-        <v>0.0859640902445129</v>
+        <v>0.0789334465521776</v>
       </c>
       <c r="F17">
-        <v>0.2490414843358764</v>
+        <v>0.2240240650315215</v>
       </c>
       <c r="G17">
-        <v>0.1358323115006144</v>
+        <v>0.1090997548539008</v>
       </c>
       <c r="H17">
-        <v>0.1255623500733378</v>
+        <v>0.1254510811982783</v>
       </c>
       <c r="I17">
-        <v>0.006625852689222889</v>
+        <v>0.00668182544945406</v>
       </c>
       <c r="J17">
-        <v>0.1646202430089758</v>
+        <v>0.1855882934961812</v>
       </c>
       <c r="K17">
-        <v>0.2486754282538826</v>
+        <v>0.2172735108610517</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1179252223949021</v>
       </c>
       <c r="M17">
-        <v>7.437302772452824</v>
+        <v>0.05962345231180777</v>
       </c>
       <c r="N17">
-        <v>0.0537992077710534</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>7.431608897229751</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.05600004525020452</v>
       </c>
       <c r="Q17">
-        <v>0.5822145148087401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.5221734501464539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3119295617612181</v>
+        <v>0.2538754784731765</v>
       </c>
       <c r="D18">
-        <v>0.142277025323807</v>
+        <v>0.1511483188990326</v>
       </c>
       <c r="E18">
-        <v>0.1137744180975915</v>
+        <v>0.1046059110916993</v>
       </c>
       <c r="F18">
-        <v>0.2736535598110521</v>
+        <v>0.2461906791390405</v>
       </c>
       <c r="G18">
-        <v>0.1574615979387488</v>
+        <v>0.1245974941235843</v>
       </c>
       <c r="H18">
-        <v>0.07267990680627179</v>
+        <v>0.07257797973379354</v>
       </c>
       <c r="I18">
-        <v>0.006235248342206567</v>
+        <v>0.006275346076395572</v>
       </c>
       <c r="J18">
-        <v>0.1774430628922801</v>
+        <v>0.1996439316610008</v>
       </c>
       <c r="K18">
-        <v>0.2790299842030421</v>
+        <v>0.2426173468960009</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1281953084004464</v>
       </c>
       <c r="M18">
-        <v>7.259459829929312</v>
+        <v>0.06811839575096457</v>
       </c>
       <c r="N18">
-        <v>0.08521197616351373</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>7.254048094560005</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.08898254756721258</v>
       </c>
       <c r="Q18">
-        <v>0.6548643044612277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.5851943020479808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3596325245018477</v>
+        <v>0.289646131926105</v>
       </c>
       <c r="D19">
-        <v>0.131701349429278</v>
+        <v>0.1410062003039627</v>
       </c>
       <c r="E19">
-        <v>0.1596014395698191</v>
+        <v>0.1471139492054654</v>
       </c>
       <c r="F19">
-        <v>0.3073893021657526</v>
+        <v>0.2748696287569743</v>
       </c>
       <c r="G19">
-        <v>0.1865824561249809</v>
+        <v>0.1474409256347045</v>
       </c>
       <c r="H19">
-        <v>0.02783637613320167</v>
+        <v>0.02770842673852059</v>
       </c>
       <c r="I19">
-        <v>0.006592175099306097</v>
+        <v>0.006614333136900186</v>
       </c>
       <c r="J19">
-        <v>0.1931197676362544</v>
+        <v>0.2136052041743781</v>
       </c>
       <c r="K19">
-        <v>0.3202196565830988</v>
+        <v>0.2754909379949169</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1407345006830454</v>
       </c>
       <c r="M19">
-        <v>7.20220601102551</v>
+        <v>0.08036995822428494</v>
       </c>
       <c r="N19">
-        <v>0.1460506975844993</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>7.196419441701494</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1520768060744757</v>
       </c>
       <c r="Q19">
-        <v>0.7494299489397918</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.6625735565689723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4556024862672245</v>
+        <v>0.3621169256570482</v>
       </c>
       <c r="D20">
-        <v>0.1225236800960516</v>
+        <v>0.1336781749794937</v>
       </c>
       <c r="E20">
-        <v>0.2546672513074384</v>
+        <v>0.2354832777392062</v>
       </c>
       <c r="F20">
-        <v>0.3687238389293199</v>
+        <v>0.3232890941452737</v>
       </c>
       <c r="G20">
-        <v>0.2380574068876768</v>
+        <v>0.1935416004143136</v>
       </c>
       <c r="H20">
-        <v>0.003455476751898612</v>
+        <v>0.003165325638034844</v>
       </c>
       <c r="I20">
-        <v>0.008270058262682234</v>
+        <v>0.008030804308629236</v>
       </c>
       <c r="J20">
-        <v>0.2174361491216672</v>
+        <v>0.225026526789506</v>
       </c>
       <c r="K20">
-        <v>0.3942943863612456</v>
+        <v>0.3309871083924598</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1590390776985444</v>
       </c>
       <c r="M20">
-        <v>7.485012304214933</v>
+        <v>0.1048878325200917</v>
       </c>
       <c r="N20">
-        <v>0.2850001852374788</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>7.476945509738528</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2950668449170308</v>
       </c>
       <c r="Q20">
-        <v>0.9096384827866189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.7817049374575475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.511028698934382</v>
+        <v>0.4082017260583655</v>
       </c>
       <c r="D21">
-        <v>0.1350684131532063</v>
+        <v>0.1519041017331659</v>
       </c>
       <c r="E21">
-        <v>0.2903721443794396</v>
+        <v>0.2685299782174155</v>
       </c>
       <c r="F21">
-        <v>0.3967059710090126</v>
+        <v>0.3292871855616752</v>
       </c>
       <c r="G21">
-        <v>0.2531024211700128</v>
+        <v>0.249020224420633</v>
       </c>
       <c r="H21">
-        <v>0.005659215671399542</v>
+        <v>0.00500492064935254</v>
       </c>
       <c r="I21">
-        <v>0.01162833415987397</v>
+        <v>0.01072676545674511</v>
       </c>
       <c r="J21">
-        <v>0.2181061371277195</v>
+        <v>0.1750083556516699</v>
       </c>
       <c r="K21">
-        <v>0.4195139925403382</v>
+        <v>0.334867068451004</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1529784266959453</v>
       </c>
       <c r="M21">
-        <v>8.412885786200036</v>
+        <v>0.1168072995818576</v>
       </c>
       <c r="N21">
-        <v>0.3291339892250278</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>8.399481070007425</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.339444752639551</v>
       </c>
       <c r="Q21">
-        <v>0.9433246734755159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.7547327353437083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.5458106077269633</v>
+        <v>0.4379651470004831</v>
       </c>
       <c r="D22">
-        <v>0.1435944909235758</v>
+        <v>0.1644527520199688</v>
       </c>
       <c r="E22">
-        <v>0.3095314610167108</v>
+        <v>0.2863031089383554</v>
       </c>
       <c r="F22">
-        <v>0.4144772169796056</v>
+        <v>0.3318597387056528</v>
       </c>
       <c r="G22">
-        <v>0.2624591395993576</v>
+        <v>0.2920070496160463</v>
       </c>
       <c r="H22">
-        <v>0.007363290644980008</v>
+        <v>0.006420049320255639</v>
       </c>
       <c r="I22">
-        <v>0.01383494330569235</v>
+        <v>0.01235560574387762</v>
       </c>
       <c r="J22">
-        <v>0.2183546823354945</v>
+        <v>0.1502377417623162</v>
       </c>
       <c r="K22">
-        <v>0.4348965981800177</v>
+        <v>0.335799698144541</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1485401222471161</v>
       </c>
       <c r="M22">
-        <v>9.01957693322322</v>
+        <v>0.1243116052888134</v>
       </c>
       <c r="N22">
-        <v>0.3503023582364762</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>9.00241339523717</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3605014372652988</v>
       </c>
       <c r="Q22">
-        <v>0.9639266914181519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.7337679701891204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.530031449018793</v>
+        <v>0.4238138276125483</v>
       </c>
       <c r="D23">
-        <v>0.138751968153187</v>
+        <v>0.1570167239498232</v>
       </c>
       <c r="E23">
-        <v>0.2998629206955172</v>
+        <v>0.2772158519122812</v>
       </c>
       <c r="F23">
-        <v>0.4062342490213666</v>
+        <v>0.333191307144773</v>
       </c>
       <c r="G23">
-        <v>0.2586009887815308</v>
+        <v>0.2641860680461008</v>
       </c>
       <c r="H23">
-        <v>0.006441430198034948</v>
+        <v>0.005662657249761283</v>
       </c>
       <c r="I23">
-        <v>0.01238286263267785</v>
+        <v>0.01116439559498605</v>
       </c>
       <c r="J23">
-        <v>0.2187981933176459</v>
+        <v>0.1661993157720119</v>
       </c>
       <c r="K23">
-        <v>0.4285222063645477</v>
+        <v>0.3381364190855507</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1518556921859933</v>
       </c>
       <c r="M23">
-        <v>8.695883247950121</v>
+        <v>0.1214647782116494</v>
       </c>
       <c r="N23">
-        <v>0.3387121276334852</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>8.6808877104163</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3490828772444274</v>
       </c>
       <c r="Q23">
-        <v>0.9565464167563675</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.7523868947553609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4654731833326764</v>
+        <v>0.3699111040014884</v>
       </c>
       <c r="D24">
-        <v>0.1209134550169466</v>
+        <v>0.132043105223687</v>
       </c>
       <c r="E24">
-        <v>0.2623477844579938</v>
+        <v>0.242669832261754</v>
       </c>
       <c r="F24">
-        <v>0.3746268295792206</v>
+        <v>0.3284977066758898</v>
       </c>
       <c r="G24">
-        <v>0.2436112932031449</v>
+        <v>0.1978968108891124</v>
       </c>
       <c r="H24">
-        <v>0.003441971224470541</v>
+        <v>0.003144984786448091</v>
       </c>
       <c r="I24">
-        <v>0.007880393298934862</v>
+        <v>0.007533516469874435</v>
       </c>
       <c r="J24">
-        <v>0.2203817167062994</v>
+        <v>0.2279055494161213</v>
       </c>
       <c r="K24">
-        <v>0.4022919601492774</v>
+        <v>0.3376424091014876</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1615848298265483</v>
       </c>
       <c r="M24">
-        <v>7.47068313949444</v>
+        <v>0.1073565954725808</v>
       </c>
       <c r="N24">
-        <v>0.2954598996462465</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>7.462572938042001</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3058327567967751</v>
       </c>
       <c r="Q24">
-        <v>0.9275790147110854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.7969826325396667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3952984829962531</v>
+        <v>0.3177561788294412</v>
       </c>
       <c r="D25">
-        <v>0.1016957889710071</v>
+        <v>0.109769026430115</v>
       </c>
       <c r="E25">
-        <v>0.2218721186735735</v>
+        <v>0.206555872129556</v>
       </c>
       <c r="F25">
-        <v>0.3439530804419277</v>
+        <v>0.3083839126981118</v>
       </c>
       <c r="G25">
-        <v>0.2305130433782878</v>
+        <v>0.1873023884884262</v>
       </c>
       <c r="H25">
-        <v>0.001182438443655731</v>
+        <v>0.001150750854165716</v>
       </c>
       <c r="I25">
-        <v>0.004213017261909258</v>
+        <v>0.004401860874476249</v>
       </c>
       <c r="J25">
-        <v>0.2238861048606822</v>
+        <v>0.2389599795453421</v>
       </c>
       <c r="K25">
-        <v>0.3759303374231351</v>
+        <v>0.3240473671256474</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1674691930594392</v>
       </c>
       <c r="M25">
-        <v>6.149890941744047</v>
+        <v>0.08880501796496176</v>
       </c>
       <c r="N25">
-        <v>0.249089453231278</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>6.1464172189593</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2582315715324057</v>
       </c>
       <c r="Q25">
-        <v>0.9065759447145041</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8037163625222803</v>
       </c>
     </row>
   </sheetData>
